--- a/data.xlsx
+++ b/data.xlsx
@@ -493,7 +493,7 @@
         <v>-1.27</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002189923459261944</v>
+        <v>-0.002519346302853442</v>
       </c>
       <c r="G2" t="n">
         <v>0.01895152589936998</v>
@@ -516,7 +516,7 @@
         <v>1.79</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002563873668094629</v>
+        <v>0.0003602954461601193</v>
       </c>
       <c r="G3" t="n">
         <v>0.02122662030344003</v>
@@ -539,7 +539,7 @@
         <v>2.970000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002257916492705458</v>
+        <v>0.002159050856693323</v>
       </c>
       <c r="G4" t="n">
         <v>0.01261177188760996</v>
@@ -562,7 +562,7 @@
         <v>0.4999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006180025132239031</v>
+        <v>0.002513015144100628</v>
       </c>
       <c r="G5" t="n">
         <v>0.01353257135855998</v>
@@ -585,7 +585,7 @@
         <v>-3.209999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01376653516933946</v>
+        <v>0.009634329650443973</v>
       </c>
       <c r="G6" t="n">
         <v>0.01404514472274002</v>
@@ -608,7 +608,7 @@
         <v>6.779999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007957420304242735</v>
+        <v>0.008486613877318749</v>
       </c>
       <c r="G7" t="n">
         <v>0.01908594264962005</v>
@@ -631,7 +631,7 @@
         <v>-3.56</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002923862658342991</v>
+        <v>0.007716628961144334</v>
       </c>
       <c r="G8" t="n">
         <v>0.01872066909541005</v>
@@ -654,7 +654,7 @@
         <v>1.07</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006005730288317856</v>
+        <v>0.005227403435152045</v>
       </c>
       <c r="G9" t="n">
         <v>0.01828047327264997</v>
@@ -677,7 +677,7 @@
         <v>-2.85</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006130756592836129</v>
+        <v>0.003816136461168629</v>
       </c>
       <c r="G10" t="n">
         <v>0.01777552745665005</v>
@@ -700,7 +700,7 @@
         <v>5.890000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002988072357566818</v>
+        <v>0.008962486742433384</v>
       </c>
       <c r="G11" t="n">
         <v>0.01788956464814007</v>
@@ -723,7 +723,7 @@
         <v>-6.210000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00370585442358129</v>
+        <v>0.0006861063733984984</v>
       </c>
       <c r="G12" t="n">
         <v>0.008811461068369936</v>
@@ -746,7 +746,7 @@
         <v>0.8500000000000005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004104316772893135</v>
+        <v>0.005471969877993477</v>
       </c>
       <c r="G13" t="n">
         <v>0.01018731832520999</v>
@@ -769,7 +769,7 @@
         <v>1.249999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002959063544870411</v>
+        <v>0.003064875547452939</v>
       </c>
       <c r="G14" t="n">
         <v>0.01176929888223</v>
@@ -792,7 +792,7 @@
         <v>-1.319999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003669163139001341</v>
+        <v>0.000679809679477561</v>
       </c>
       <c r="G15" t="n">
         <v>0.01110483158052006</v>
@@ -815,7 +815,7 @@
         <v>6.64</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008728786253370924</v>
+        <v>0.008458856053798591</v>
       </c>
       <c r="G16" t="n">
         <v>0.01137345335827007</v>
@@ -838,7 +838,7 @@
         <v>10.73</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01011266011707646</v>
+        <v>0.007385062097460704</v>
       </c>
       <c r="G17" t="n">
         <v>0.01325819720813996</v>
@@ -861,7 +861,7 @@
         <v>-14.93</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01230652131001619</v>
+        <v>0.007901808685326195</v>
       </c>
       <c r="G18" t="n">
         <v>0.01727719517603006</v>
@@ -884,7 +884,7 @@
         <v>3.140000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01086804472734482</v>
+        <v>0.01784090901204438</v>
       </c>
       <c r="G19" t="n">
         <v>0.008053886781229948</v>
@@ -907,7 +907,7 @@
         <v>-0.1900000000000013</v>
       </c>
       <c r="F20" t="n">
-        <v>0.008358439028177234</v>
+        <v>0.008461575215562345</v>
       </c>
       <c r="G20" t="n">
         <v>0.01082931306166998</v>
@@ -930,7 +930,7 @@
         <v>-3.24</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003512968525510196</v>
+        <v>0.007524848553513763</v>
       </c>
       <c r="G21" t="n">
         <v>0.01188233262636004</v>
@@ -953,7 +953,7 @@
         <v>-4.159999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002604513360624505</v>
+        <v>0.0006734093364544336</v>
       </c>
       <c r="G22" t="n">
         <v>0.01687253555634996</v>
@@ -976,7 +976,7 @@
         <v>1.09</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004789228252921607</v>
+        <v>0.003542352694367423</v>
       </c>
       <c r="G23" t="n">
         <v>0.007182159936120059</v>
@@ -999,7 +999,7 @@
         <v>6.670000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003498303311167295</v>
+        <v>0.006190511123871367</v>
       </c>
       <c r="G24" t="n">
         <v>0.01110197047468006</v>
@@ -1022,7 +1022,7 @@
         <v>-8.050000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001246956607777072</v>
+        <v>-0.001378719026472019</v>
       </c>
       <c r="G25" t="n">
         <v>0.01071790294025007</v>
@@ -1045,7 +1045,7 @@
         <v>1.18</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002290130815853608</v>
+        <v>0.003506598689320573</v>
       </c>
       <c r="G26" t="n">
         <v>0.00966622823324002</v>
@@ -1068,7 +1068,7 @@
         <v>0.3900000000000006</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002105847489222157</v>
+        <v>0.003649015906685538</v>
       </c>
       <c r="G27" t="n">
         <v>0.01092252402948006</v>
@@ -1091,7 +1091,7 @@
         <v>-2.260000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003697933248750562</v>
+        <v>0.002754805312700892</v>
       </c>
       <c r="G28" t="n">
         <v>0.01411668525218005</v>
@@ -1114,7 +1114,7 @@
         <v>0.9700000000000006</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0008200513875982196</v>
+        <v>0.00265934195025519</v>
       </c>
       <c r="G29" t="n">
         <v>0.01287332452043003</v>
@@ -1137,7 +1137,7 @@
         <v>1.35</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.000649615857949648</v>
+        <v>-0.002209334468760815</v>
       </c>
       <c r="G30" t="n">
         <v>0.01069507087383002</v>
@@ -1160,7 +1160,7 @@
         <v>-3.95</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.003690023459552272</v>
+        <v>0.001575003980158751</v>
       </c>
       <c r="G31" t="n">
         <v>0.01274161769922998</v>
@@ -1183,7 +1183,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.007780882334292194</v>
+        <v>-0.008251449650428899</v>
       </c>
       <c r="G32" t="n">
         <v>0.01037192998169999</v>
@@ -1206,7 +1206,7 @@
         <v>-0.74</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.007707796623685148</v>
+        <v>-0.006125223668282498</v>
       </c>
       <c r="G33" t="n">
         <v>0.01047815097995993</v>
@@ -1229,7 +1229,7 @@
         <v>-0.5799999999999998</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.00981131654890488</v>
+        <v>-0.008898593021663626</v>
       </c>
       <c r="G34" t="n">
         <v>0.008266407971549938</v>
@@ -1252,7 +1252,7 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01428696618474534</v>
+        <v>-0.01496899614890301</v>
       </c>
       <c r="G35" t="n">
         <v>0.009938643797299989</v>
@@ -1275,7 +1275,7 @@
         <v>2.26</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.003562104532061294</v>
+        <v>-0.008492223390440756</v>
       </c>
       <c r="G36" t="n">
         <v>0.01046464245029</v>
@@ -1298,7 +1298,7 @@
         <v>0.1899999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0003709376087188687</v>
+        <v>-0.003356415943594371</v>
       </c>
       <c r="G37" t="n">
         <v>0.005234487904029948</v>
@@ -1321,7 +1321,7 @@
         <v>5.969999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00819087898169224</v>
+        <v>0.008769491086335623</v>
       </c>
       <c r="G38" t="n">
         <v>0.008858914151140027</v>
@@ -1344,7 +1344,7 @@
         <v>-4.989999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.01428254670055962</v>
+        <v>0.002236756982261667</v>
       </c>
       <c r="G39" t="n">
         <v>0.01023327924954003</v>
@@ -1367,7 +1367,7 @@
         <v>-1.46</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.011897159273901</v>
+        <v>-0.02209824844043418</v>
       </c>
       <c r="G40" t="n">
         <v>0.008038403994300012</v>
@@ -1390,7 +1390,7 @@
         <v>-1.94</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.01263536328176107</v>
+        <v>-0.008090721414326207</v>
       </c>
       <c r="G41" t="n">
         <v>0.008856058508740005</v>
@@ -1413,7 +1413,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.02041874709838787</v>
+        <v>-0.008428283969300843</v>
       </c>
       <c r="G42" t="n">
         <v>0.004563453493379939</v>
@@ -1436,7 +1436,7 @@
         <v>0.08999999999999986</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01130270840779124</v>
+        <v>-0.03205879266581713</v>
       </c>
       <c r="G43" t="n">
         <v>0.006407438092259952</v>
@@ -1459,7 +1459,7 @@
         <v>0.49</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0005114731555173613</v>
+        <v>-0.0003155602798909918</v>
       </c>
       <c r="G44" t="n">
         <v>0.007217168532790055</v>
@@ -1482,7 +1482,7 @@
         <v>4.19</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00546606984925635</v>
+        <v>-3.857530865136738e-05</v>
       </c>
       <c r="G45" t="n">
         <v>0.01021202209668005</v>
@@ -1505,7 +1505,7 @@
         <v>4.22</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01052755786277215</v>
+        <v>0.01552323159460567</v>
       </c>
       <c r="G46" t="n">
         <v>0.007955767229649951</v>
@@ -1528,7 +1528,7 @@
         <v>-3.67</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00139634226707086</v>
+        <v>0.001314688640977391</v>
       </c>
       <c r="G47" t="n">
         <v>0.009737639292039973</v>
@@ -1551,7 +1551,7 @@
         <v>-2.68</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001796620525056358</v>
+        <v>0.001646958667710141</v>
       </c>
       <c r="G48" t="n">
         <v>0.01213930050494</v>
@@ -1574,7 +1574,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004712076378605268</v>
+        <v>0.003210308732982892</v>
       </c>
       <c r="G49" t="n">
         <v>0.01300106930691996</v>
@@ -1597,7 +1597,7 @@
         <v>-0.8799999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>9.56892015464561e-05</v>
+        <v>0.004061677239142192</v>
       </c>
       <c r="G50" t="n">
         <v>0.009511005805420041</v>
@@ -1620,7 +1620,7 @@
         <v>-1.74</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.005207615694024614</v>
+        <v>-0.001255097930720428</v>
       </c>
       <c r="G51" t="n">
         <v>0.01177578026451997</v>
@@ -1643,7 +1643,7 @@
         <v>-0.07999999999999985</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.01661858090094004</v>
+        <v>-0.01577269171694473</v>
       </c>
       <c r="G52" t="n">
         <v>0.009979456839739952</v>
@@ -1666,7 +1666,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.02432742843096314</v>
+        <v>-0.02162970186301694</v>
       </c>
       <c r="G53" t="n">
         <v>0.009627307626760029</v>
@@ -1689,7 +1689,7 @@
         <v>-0.09000000000000008</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003757956235193927</v>
+        <v>-0.0143441526450192</v>
       </c>
       <c r="G54" t="n">
         <v>0.01322602672203004</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0004889583745524284</v>
+        <v>0.01306445277324153</v>
       </c>
       <c r="G55" t="n">
         <v>0.008657916263319975</v>
@@ -1735,7 +1735,7 @@
         <v>-0.11</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.01326736301221398</v>
+        <v>-0.014795761389375</v>
       </c>
       <c r="G56" t="n">
         <v>0.01289635417089997</v>
@@ -1758,7 +1758,7 @@
         <v>0.4599999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.006635757060808434</v>
+        <v>0.00554761977539675</v>
       </c>
       <c r="G57" t="n">
         <v>0.01163742588776998</v>
@@ -1781,7 +1781,7 @@
         <v>1.47</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00505807574874817</v>
+        <v>-0.0006607866474244162</v>
       </c>
       <c r="G58" t="n">
         <v>0.008728644207370025</v>
@@ -1804,7 +1804,7 @@
         <v>1.09</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01936273791069354</v>
+        <v>0.01278595348584943</v>
       </c>
       <c r="G59" t="n">
         <v>0.008353217989310054</v>
@@ -1827,7 +1827,7 @@
         <v>-0.52</v>
       </c>
       <c r="F60" t="n">
-        <v>0.006873859967040374</v>
+        <v>0.01526177577339904</v>
       </c>
       <c r="G60" t="n">
         <v>0.007276237742070038</v>
@@ -1850,7 +1850,7 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.00750770738612383</v>
+        <v>-0.001160368652056931</v>
       </c>
       <c r="G61" t="n">
         <v>0.006849199070800012</v>
@@ -1873,7 +1873,7 @@
         <v>-1.11</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.003510231028861277</v>
+        <v>-0.001343794601673665</v>
       </c>
       <c r="G62" t="n">
         <v>0.007439981924020032</v>
@@ -1896,7 +1896,7 @@
         <v>1.45</v>
       </c>
       <c r="F63" t="n">
-        <v>0.006431689780703298</v>
+        <v>-0.0007636877378907059</v>
       </c>
       <c r="G63" t="n">
         <v>0.006090186034290071</v>
@@ -1919,7 +1919,7 @@
         <v>2.92</v>
       </c>
       <c r="F64" t="n">
-        <v>0.006958262305268637</v>
+        <v>-0.001115050134993023</v>
       </c>
       <c r="G64" t="n">
         <v>0.006672050197499999</v>
@@ -1942,7 +1942,7 @@
         <v>-1.06</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001459992300109292</v>
+        <v>0.009643559098847287</v>
       </c>
       <c r="G65" t="n">
         <v>0.006764373674029969</v>
@@ -1965,7 +1965,7 @@
         <v>-1.75</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.02021598004001302</v>
+        <v>-0.01037708421109995</v>
       </c>
       <c r="G66" t="n">
         <v>0.01156969485055995</v>
@@ -1988,7 +1988,7 @@
         <v>-0.1200000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.001188459651403129</v>
+        <v>-0.01242142281882463</v>
       </c>
       <c r="G67" t="n">
         <v>0.01279692200387004</v>
@@ -2011,7 +2011,7 @@
         <v>0.2199999999999998</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.01144445582859355</v>
+        <v>-0.0003342127188381561</v>
       </c>
       <c r="G68" t="n">
         <v>0.007630076948509981</v>
@@ -2034,7 +2034,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.01115835193234993</v>
+        <v>-0.01510221158699077</v>
       </c>
       <c r="G69" t="n">
         <v>0.004168616857169951</v>
@@ -2057,7 +2057,7 @@
         <v>-1.27</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.01873937027058714</v>
+        <v>-0.01664338952871347</v>
       </c>
       <c r="G70" t="n">
         <v>0.005620699017379991</v>
@@ -2080,7 +2080,7 @@
         <v>0.48</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.00256485202168566</v>
+        <v>-0.01132946395917722</v>
       </c>
       <c r="G71" t="n">
         <v>0.00464551919507997</v>
@@ -2103,7 +2103,7 @@
         <v>-0.6099999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.002509267498940648</v>
+        <v>0.0002524230772640301</v>
       </c>
       <c r="G72" t="n">
         <v>0.009065160646169943</v>
@@ -2126,7 +2126,7 @@
         <v>0.25</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.005734312815927733</v>
+        <v>-0.004560850136543504</v>
       </c>
       <c r="G73" t="n">
         <v>0.009624012460329965</v>
@@ -2149,7 +2149,7 @@
         <v>1.02</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.0005823710099623902</v>
+        <v>-0.003368867707030265</v>
       </c>
       <c r="G74" t="n">
         <v>0.005434623893069954</v>
@@ -2172,7 +2172,7 @@
         <v>0.9099999999999997</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004508713462223035</v>
+        <v>0.002440014438222615</v>
       </c>
       <c r="G75" t="n">
         <v>0.003441872800579944</v>
@@ -2195,7 +2195,7 @@
         <v>2.13</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.009340893926077509</v>
+        <v>-0.0005114239909587148</v>
       </c>
       <c r="G76" t="n">
         <v>0.005847020788019961</v>
@@ -2218,7 +2218,7 @@
         <v>-1.489999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.01244705486350872</v>
+        <v>-0.017819538291866</v>
       </c>
       <c r="G77" t="n">
         <v>0.006746764820129983</v>
@@ -2241,7 +2241,7 @@
         <v>-1.69</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0091216831859664</v>
+        <v>0.005246947849774308</v>
       </c>
       <c r="G78" t="n">
         <v>0.004688485339869999</v>
@@ -2264,7 +2264,7 @@
         <v>0.4199999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.007026549775684288</v>
+        <v>0.003845657811749614</v>
       </c>
       <c r="G79" t="n">
         <v>0.007530290770140055</v>
@@ -2287,7 +2287,7 @@
         <v>1.29</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.009063897040297864</v>
+        <v>-0.01519295209109295</v>
       </c>
       <c r="G80" t="n">
         <v>0.005334088669160053</v>
@@ -2310,7 +2310,7 @@
         <v>-1.53</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.01028957775261796</v>
+        <v>-0.005883859039259143</v>
       </c>
       <c r="G81" t="n">
         <v>0.006443408421090027</v>
@@ -2333,7 +2333,7 @@
         <v>-0.08000000000000007</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0005538705613670203</v>
+        <v>-0.009209531170985219</v>
       </c>
       <c r="G82" t="n">
         <v>0.007073571161400025</v>
@@ -2356,7 +2356,7 @@
         <v>0.04999999999999982</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003295749344095711</v>
+        <v>0.005725838173994635</v>
       </c>
       <c r="G83" t="n">
         <v>0.01118374449167007</v>
@@ -2379,7 +2379,7 @@
         <v>0.03000000000000025</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.01432666851735886</v>
+        <v>-0.006797991050700336</v>
       </c>
       <c r="G84" t="n">
         <v>0.01093971192647004</v>
@@ -2402,7 +2402,7 @@
         <v>1.83</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003242056008764926</v>
+        <v>-0.007177213609188549</v>
       </c>
       <c r="G85" t="n">
         <v>0.00822996992898993</v>
@@ -2425,7 +2425,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.01136717857241942</v>
+        <v>0.003181492199103353</v>
       </c>
       <c r="G86" t="n">
         <v>0.01202636315351001</v>
@@ -2448,7 +2448,7 @@
         <v>-0.3399999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.01743445742084004</v>
+        <v>-0.02961530850899408</v>
       </c>
       <c r="G87" t="n">
         <v>0.01697853727034001</v>
@@ -2471,7 +2471,7 @@
         <v>0.5099999999999998</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.01746831154741191</v>
+        <v>-0.0083147471611551</v>
       </c>
       <c r="G88" t="n">
         <v>0.01205264934631998</v>
@@ -2494,7 +2494,7 @@
         <v>-2.26</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004477624395022417</v>
+        <v>-0.01040150344840374</v>
       </c>
       <c r="G89" t="n">
         <v>0.01037268394945002</v>
@@ -2517,7 +2517,7 @@
         <v>-1.46</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.003049373391076582</v>
+        <v>0.0008842348874593675</v>
       </c>
       <c r="G90" t="n">
         <v>0.01137592772554001</v>
@@ -2540,7 +2540,7 @@
         <v>1.69</v>
       </c>
       <c r="F91" t="n">
-        <v>0.001112337467732871</v>
+        <v>-0.000511614687542572</v>
       </c>
       <c r="G91" t="n">
         <v>0.008656817106510032</v>
@@ -2563,7 +2563,7 @@
         <v>0.05000000000000071</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.03176851840302186</v>
+        <v>-0.01750666762221442</v>
       </c>
       <c r="G92" t="n">
         <v>0.01127559795357001</v>
@@ -2586,7 +2586,7 @@
         <v>-0.1900000000000004</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01046970097029742</v>
+        <v>-0.02103435092218975</v>
       </c>
       <c r="G93" t="n">
         <v>0.01489645475328004</v>
@@ -2609,7 +2609,7 @@
         <v>-0.46</v>
       </c>
       <c r="F94" t="n">
-        <v>0.008752325435045449</v>
+        <v>0.006619830584387643</v>
       </c>
       <c r="G94" t="n">
         <v>0.01417300684468998</v>
@@ -2632,7 +2632,7 @@
         <v>-0.06999999999999984</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.003225006677517683</v>
+        <v>0.003733701055828043</v>
       </c>
       <c r="G95" t="n">
         <v>0.01130844994205006</v>
@@ -2655,7 +2655,7 @@
         <v>0.5500000000000003</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01257024732867196</v>
+        <v>-0.01444226136883531</v>
       </c>
       <c r="G96" t="n">
         <v>0.007262381115289997</v>
@@ -2678,7 +2678,7 @@
         <v>1.71</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03391566416877811</v>
+        <v>0.0005039999764995251</v>
       </c>
       <c r="G97" t="n">
         <v>0.01051401219267007</v>
@@ -2701,7 +2701,7 @@
         <v>1.54</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04519276096235636</v>
+        <v>0.05193573954301822</v>
       </c>
       <c r="G98" t="n">
         <v>0.01181431566699004</v>
@@ -2724,7 +2724,7 @@
         <v>0.3399999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>0.04209502170955837</v>
+        <v>0.02817200307697076</v>
       </c>
       <c r="G99" t="n">
         <v>0.009947674134159996</v>
@@ -2747,7 +2747,7 @@
         <v>1.2</v>
       </c>
       <c r="F100" t="n">
-        <v>0.03641006820851667</v>
+        <v>0.06582529369144074</v>
       </c>
       <c r="G100" t="n">
         <v>0.00833288538751006</v>
@@ -2770,7 +2770,7 @@
         <v>-0.08999999999999986</v>
       </c>
       <c r="F101" t="n">
-        <v>0.02947219275984692</v>
+        <v>0.03062795046595168</v>
       </c>
       <c r="G101" t="n">
         <v>0.006082952594129978</v>
@@ -2793,7 +2793,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1434091239799145</v>
+        <v>0.05061735404218881</v>
       </c>
       <c r="G102" t="n">
         <v>0.01238610281150997</v>
@@ -2816,7 +2816,7 @@
         <v>-7.67</v>
       </c>
       <c r="F103" t="n">
-        <v>0.09734821033230157</v>
+        <v>0.2077063459587905</v>
       </c>
       <c r="G103" t="n">
         <v>0.01323333033468003</v>
@@ -2839,7 +2839,7 @@
         <v>-0.629999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.03283040984629126</v>
+        <v>-0.0003400556562871415</v>
       </c>
       <c r="G104" t="n">
         <v>0.01219516780697006</v>
@@ -2862,7 +2862,7 @@
         <v>-0.05000000000000071</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.03149165355356764</v>
+        <v>-0.06456580432563586</v>
       </c>
       <c r="G105" t="n">
         <v>0.007718092753139985</v>
@@ -2885,7 +2885,7 @@
         <v>-1.52</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.04845429094196474</v>
+        <v>-0.02779003307269967</v>
       </c>
       <c r="G106" t="n">
         <v>0.006390406051820036</v>
@@ -2908,7 +2908,7 @@
         <v>-0.3099999999999996</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.02971712172355634</v>
+        <v>-0.07002126621454652</v>
       </c>
       <c r="G107" t="n">
         <v>0.007535739456189958</v>
@@ -2931,7 +2931,7 @@
         <v>-0.29</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01438988737370384</v>
+        <v>0.009530263480631795</v>
       </c>
       <c r="G108" t="n">
         <v>0.008172026040579965</v>
@@ -2954,7 +2954,7 @@
         <v>0.1500000000000004</v>
       </c>
       <c r="F109" t="n">
-        <v>0.004481154698428025</v>
+        <v>0.00369180922206569</v>
       </c>
       <c r="G109" t="n">
         <v>0.006356422329459975</v>
@@ -2977,7 +2977,7 @@
         <v>0.6399999999999997</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.02537400147075042</v>
+        <v>0.02179376019410384</v>
       </c>
       <c r="G110" t="n">
         <v>0.003205552789369932</v>
@@ -3000,7 +3000,7 @@
         <v>-1.44</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.04618472829775255</v>
+        <v>-0.05922659920095796</v>
       </c>
       <c r="G111" t="n">
         <v>0.001102267460850044</v>
@@ -3023,7 +3023,7 @@
         <v>-0.5899999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.01920640558703735</v>
+        <v>-0.0275104295602584</v>
       </c>
       <c r="G112" t="n">
         <v>0.00304121286126005</v>
@@ -3046,7 +3046,7 @@
         <v>-0.3899999999999997</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03586527250076799</v>
+        <v>-0.004314916131436419</v>
       </c>
       <c r="G113" t="n">
         <v>0.003117277681839994</v>
@@ -3069,7 +3069,7 @@
         <v>-0.8300000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.004020347364366295</v>
+        <v>0.03768643121807358</v>
       </c>
       <c r="G114" t="n">
         <v>0.00579937335059995</v>
@@ -3092,7 +3092,7 @@
         <v>-0.1699999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.010641924826301</v>
+        <v>0.007081025284211062</v>
       </c>
       <c r="G115" t="n">
         <v>0.005729057196460019</v>
@@ -3115,7 +3115,7 @@
         <v>-0.29</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.02004754374802253</v>
+        <v>-0.01556812856626566</v>
       </c>
       <c r="G116" t="n">
         <v>0.005488255585959933</v>
@@ -3138,7 +3138,7 @@
         <v>-0.2600000000000002</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.01246458601704115</v>
+        <v>-0.01462022218555292</v>
       </c>
       <c r="G117" t="n">
         <v>0.003865823772730011</v>
@@ -3161,7 +3161,7 @@
         <v>-0.5299999999999998</v>
       </c>
       <c r="F118" t="n">
-        <v>0.04165361691486158</v>
+        <v>-0.01165926526334315</v>
       </c>
       <c r="G118" t="n">
         <v>0.005691168840029946</v>
@@ -3184,7 +3184,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="F119" t="n">
-        <v>0.02400459145564815</v>
+        <v>0.05298290369473824</v>
       </c>
       <c r="G119" t="n">
         <v>0.005413140478750051</v>
@@ -3207,7 +3207,7 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.01601319327632345</v>
+        <v>0.01662742314376064</v>
       </c>
       <c r="G120" t="n">
         <v>0.00520213503582994</v>
@@ -3230,7 +3230,7 @@
         <v>-0.04000000000000004</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.01075244336907044</v>
+        <v>-0.0348106077284509</v>
       </c>
       <c r="G121" t="n">
         <v>0.01145007665886993</v>
@@ -3253,7 +3253,7 @@
         <v>0.04999999999999982</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01507002850519656</v>
+        <v>0.02230285882494076</v>
       </c>
       <c r="G122" t="n">
         <v>0.01156403213862006</v>
@@ -3276,7 +3276,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.01599854727933803</v>
+        <v>-0.01154469929164215</v>
       </c>
       <c r="G123" t="n">
         <v>0.006032086531269982</v>
@@ -3299,7 +3299,7 @@
         <v>0.3500000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0216550398377211</v>
+        <v>0.008523965562353908</v>
       </c>
       <c r="G124" t="n">
         <v>0.00817377088588998</v>
@@ -3322,7 +3322,7 @@
         <v>-0.1499999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.004168843534410716</v>
+        <v>0.01802413411527182</v>
       </c>
       <c r="G125" t="n">
         <v>0.00945439324958997</v>
@@ -3345,7 +3345,7 @@
         <v>-0.1800000000000002</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.0284592882634267</v>
+        <v>-0.03187482090229921</v>
       </c>
       <c r="G126" t="n">
         <v>0.01385167669848997</v>
@@ -3368,7 +3368,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.02261900317920551</v>
+        <v>-0.01824419746263084</v>
       </c>
       <c r="G127" t="n">
         <v>0.00533649245882998</v>
@@ -3391,7 +3391,7 @@
         <v>0.27</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.02967989671315818</v>
+        <v>-0.03063031813334582</v>
       </c>
       <c r="G128" t="n">
         <v>0.005501705088470032</v>
@@ -3414,7 +3414,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.01342828374451743</v>
+        <v>-0.0134661294012246</v>
       </c>
       <c r="G129" t="n">
         <v>0.00526884625479994</v>
@@ -3437,7 +3437,7 @@
         <v>0.5099999999999998</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.005346069225027783</v>
+        <v>-0.04231173114402242</v>
       </c>
       <c r="G130" t="n">
         <v>0.005423510036009986</v>
@@ -3460,7 +3460,7 @@
         <v>-0.02000000000000002</v>
       </c>
       <c r="F131" t="n">
-        <v>0.001890632000591363</v>
+        <v>0.02334722329158589</v>
       </c>
       <c r="G131" t="n">
         <v>0.003699062056320059</v>
@@ -3483,7 +3483,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.002679567777279956</v>
+        <v>-0.003863711565874617</v>
       </c>
       <c r="G132" t="n">
         <v>0.001123078002959943</v>
@@ -3506,7 +3506,7 @@
         <v>0.08999999999999986</v>
       </c>
       <c r="F133" t="n">
-        <v>0.02944988104454405</v>
+        <v>-0.01271657957563876</v>
       </c>
       <c r="G133" t="n">
         <v>0.003360111474709981</v>
@@ -3529,7 +3529,7 @@
         <v>0.4899999999999998</v>
       </c>
       <c r="F134" t="n">
-        <v>0.06156008074563113</v>
+        <v>0.04987552262581874</v>
       </c>
       <c r="G134" t="n">
         <v>0.002593999127190045</v>
@@ -3552,7 +3552,7 @@
         <v>0.5</v>
       </c>
       <c r="F135" t="n">
-        <v>0.02635517893234729</v>
+        <v>0.1043644376323702</v>
       </c>
       <c r="G135" t="n">
         <v>0.005677376271469967</v>
@@ -3575,7 +3575,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.01817026306710368</v>
+        <v>-0.06382871393871703</v>
       </c>
       <c r="G136" t="n">
         <v>0.004239602216750029</v>
@@ -3598,7 +3598,7 @@
         <v>0.3600000000000003</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02144481741906779</v>
+        <v>0.04147228345980691</v>
       </c>
       <c r="G137" t="n">
         <v>0.002878098793409976</v>
@@ -3621,7 +3621,7 @@
         <v>-0.5700000000000003</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.008060612410743406</v>
+        <v>0.01494504133279939</v>
       </c>
       <c r="G138" t="n">
         <v>-0.003526792094934024</v>
@@ -3644,7 +3644,7 @@
         <v>-0.4299999999999997</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.04427283158218209</v>
+        <v>-0.05017615663907193</v>
       </c>
       <c r="G139" t="n">
         <v>0.001593868617840002</v>
@@ -3667,7 +3667,7 @@
         <v>0.71</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.01869765324595019</v>
+        <v>-0.04341209886838726</v>
       </c>
       <c r="G140" t="n">
         <v>0.005177753001279939</v>
@@ -3690,7 +3690,7 @@
         <v>0.2199999999999998</v>
       </c>
       <c r="F141" t="n">
-        <v>0.005406835521287956</v>
+        <v>0.01105313001087449</v>
       </c>
       <c r="G141" t="n">
         <v>0.003983115638520047</v>
@@ -3713,7 +3713,7 @@
         <v>0.46</v>
       </c>
       <c r="F142" t="n">
-        <v>0.04357530626156692</v>
+        <v>0.0007799900597595943</v>
       </c>
       <c r="G142" t="n">
         <v>0.00575381130582997</v>
@@ -3736,7 +3736,7 @@
         <v>-0.03000000000000025</v>
       </c>
       <c r="F143" t="n">
-        <v>0.06515833033415541</v>
+        <v>0.1139973719158678</v>
       </c>
       <c r="G143" t="n">
         <v>0.01014134711517002</v>
@@ -3759,7 +3759,7 @@
         <v>-0.1599999999999993</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.01080264800717012</v>
+        <v>-0.01187557885861512</v>
       </c>
       <c r="G144" t="n">
         <v>0.01300291921642995</v>
@@ -3782,7 +3782,7 @@
         <v>-0.2800000000000002</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.01762739068341546</v>
+        <v>-0.00997621602219434</v>
       </c>
       <c r="G145" t="n">
         <v>0.006596207761400024</v>
@@ -3805,7 +3805,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.01383692167247474</v>
+        <v>0.01114987459158945</v>
       </c>
       <c r="G146" t="n">
         <v>0.008402691392250005</v>
@@ -3828,7 +3828,7 @@
         <v>0.5699999999999994</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.01283702495420425</v>
+        <v>-0.04115546635540479</v>
       </c>
       <c r="G147" t="n">
         <v>0.00539563979167994</v>
@@ -3851,7 +3851,7 @@
         <v>0.02000000000000046</v>
       </c>
       <c r="F148" t="n">
-        <v>0.009057705962321805</v>
+        <v>0.003848117656357619</v>
       </c>
       <c r="G148" t="n">
         <v>0.003435637058589975</v>
@@ -3874,7 +3874,7 @@
         <v>0.04999999999999982</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.02129304412757849</v>
+        <v>-0.01811731736974531</v>
       </c>
       <c r="G149" t="n">
         <v>0.003583095498210014</v>
@@ -3897,7 +3897,7 @@
         <v>-0.75</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.01673524951244643</v>
+        <v>-0.01272217379618246</v>
       </c>
       <c r="G150" t="n">
         <v>0.001854557321060071</v>
@@ -3920,7 +3920,7 @@
         <v>0.2400000000000002</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.002121991960754688</v>
+        <v>-0.01341569090539174</v>
       </c>
       <c r="G151" t="n">
         <v>0.003580883366110044</v>
@@ -3943,7 +3943,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>0.02090579256981462</v>
+        <v>0.01639925399358999</v>
       </c>
       <c r="G152" t="n">
         <v>0.002843329322519992</v>
@@ -3966,7 +3966,7 @@
         <v>0.1899999999999995</v>
       </c>
       <c r="F153" t="n">
-        <v>0.01769698134536091</v>
+        <v>0.01937365148444092</v>
       </c>
       <c r="G153" t="n">
         <v>0.005877191111489992</v>
@@ -3989,7 +3989,7 @@
         <v>0.1500000000000004</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.001415056521642644</v>
+        <v>-0.002123805755769759</v>
       </c>
       <c r="G154" t="n">
         <v>0.007203875598359986</v>
@@ -4012,7 +4012,7 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="F155" t="n">
-        <v>0.03147153381673373</v>
+        <v>0.02401724577266595</v>
       </c>
       <c r="G155" t="n">
         <v>0.005620871136309944</v>
@@ -4035,7 +4035,7 @@
         <v>-0.2199999999999998</v>
       </c>
       <c r="F156" t="n">
-        <v>0.01334289981805048</v>
+        <v>0.03260324410243776</v>
       </c>
       <c r="G156" t="n">
         <v>0.00889162834418002</v>
@@ -4058,7 +4058,7 @@
         <v>0.03000000000000025</v>
       </c>
       <c r="F157" t="n">
-        <v>0.008640553037899235</v>
+        <v>0.005503567827431333</v>
       </c>
       <c r="G157" t="n">
         <v>0.006976980903369991</v>
@@ -4081,7 +4081,7 @@
         <v>0.1399999999999997</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.01289751842213427</v>
+        <v>0.006613868526998967</v>
       </c>
       <c r="G158" t="n">
         <v>0.005017051545829929</v>
@@ -4104,7 +4104,7 @@
         <v>-0.1900000000000004</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.01553159364974332</v>
+        <v>-0.02337634834975288</v>
       </c>
       <c r="G159" t="n">
         <v>0.006449718867010006</v>
@@ -4127,7 +4127,7 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01835965442429011</v>
+        <v>-0.01264273024288709</v>
       </c>
       <c r="G160" t="n">
         <v>0.005479289422419953</v>
@@ -4150,7 +4150,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00569442949375043</v>
+        <v>0.03288656478119023</v>
       </c>
       <c r="G161" t="n">
         <v>0.002805133806089941</v>
@@ -4173,7 +4173,7 @@
         <v>-0.3400000000000007</v>
       </c>
       <c r="F162" t="n">
-        <v>0.02711176024626916</v>
+        <v>-0.01487713380663713</v>
       </c>
       <c r="G162" t="n">
         <v>-0.001678942392566967</v>
@@ -4196,7 +4196,7 @@
         <v>-0.0699999999999994</v>
       </c>
       <c r="F163" t="n">
-        <v>0.04229867237975871</v>
+        <v>0.0743664566009361</v>
       </c>
       <c r="G163" t="n">
         <v>0.004878366669790068</v>
@@ -4219,7 +4219,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02672304021323235</v>
+        <v>0.02815863824610831</v>
       </c>
       <c r="G164" t="n">
         <v>0.009602429257689948</v>
@@ -4242,7 +4242,7 @@
         <v>0.02000000000000046</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.01477319519183284</v>
+        <v>-0.01614187437403336</v>
       </c>
       <c r="G165" t="n">
         <v>0.009712688835050045</v>
@@ -4265,7 +4265,7 @@
         <v>0.3400000000000007</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.02366226482631451</v>
+        <v>0.003291837876124859</v>
       </c>
       <c r="G166" t="n">
         <v>0.009816222859540034</v>
@@ -4288,7 +4288,7 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.01108856597818786</v>
+        <v>-0.02362334651297271</v>
       </c>
       <c r="G167" t="n">
         <v>0.007935789414650002</v>
@@ -4311,7 +4311,7 @@
         <v>-0.0600000000000005</v>
       </c>
       <c r="F168" t="n">
-        <v>0.005381080315831621</v>
+        <v>-0.03041899204043297</v>
       </c>
       <c r="G168" t="n">
         <v>0.005900491052239971</v>
@@ -4334,7 +4334,7 @@
         <v>-0.29</v>
       </c>
       <c r="F169" t="n">
-        <v>0.04137276705586279</v>
+        <v>0.04620434096094606</v>
       </c>
       <c r="G169" t="n">
         <v>0.008080243377209939</v>
@@ -4357,7 +4357,7 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0487488032749539</v>
+        <v>0.05089751922923291</v>
       </c>
       <c r="G170" t="n">
         <v>0.009519991715300052</v>
@@ -4380,7 +4380,7 @@
         <v>0.29</v>
       </c>
       <c r="F171" t="n">
-        <v>0.07365179664171784</v>
+        <v>0.05450362330124392</v>
       </c>
       <c r="G171" t="n">
         <v>0.008949393019969989</v>
@@ -4403,7 +4403,7 @@
         <v>1.970000000000001</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1247082741562546</v>
+        <v>0.06343164245942834</v>
       </c>
       <c r="G172" t="n">
         <v>0.01247567712374007</v>
@@ -4426,7 +4426,7 @@
         <v>5.26</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1878857421040285</v>
+        <v>0.2107402863259593</v>
       </c>
       <c r="G173" t="n">
         <v>0.02323313402823999</v>
@@ -4449,7 +4449,7 @@
         <v>1.49</v>
       </c>
       <c r="F174" t="n">
-        <v>0.1554957783706037</v>
+        <v>0.0820641575576202</v>
       </c>
       <c r="G174" t="n">
         <v>0.03057200228165996</v>
@@ -4472,7 +4472,7 @@
         <v>-1.840000000000002</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.009792746424929888</v>
+        <v>0.2140981127134998</v>
       </c>
       <c r="G175" t="n">
         <v>0.01984534487473994</v>
@@ -4495,7 +4495,7 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.06656912122773306</v>
+        <v>-0.1129300509458719</v>
       </c>
       <c r="G176" t="n">
         <v>0.01156438282826002</v>
@@ -4518,7 +4518,7 @@
         <v>-0.5400000000000009</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.1259680724991141</v>
+        <v>-0.07636338739119708</v>
       </c>
       <c r="G177" t="n">
         <v>0.005311283025649942</v>
@@ -4541,7 +4541,7 @@
         <v>-1.529999999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.0530711151642711</v>
+        <v>-0.1198467421253788</v>
       </c>
       <c r="G178" t="n">
         <v>0.004559130545970049</v>
@@ -4564,7 +4564,7 @@
         <v>-0.3300000000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>0.07592658060065327</v>
+        <v>0.03237101386586572</v>
       </c>
       <c r="G179" t="n">
         <v>0.003716886429260029</v>
@@ -4587,7 +4587,7 @@
         <v>-0.9800000000000004</v>
       </c>
       <c r="F180" t="n">
-        <v>0.04893318965547699</v>
+        <v>0.05559922052986144</v>
       </c>
       <c r="G180" t="n">
         <v>0.009074358346790063</v>
@@ -4610,7 +4610,7 @@
         <v>-0.6600000000000001</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1346753249968939</v>
+        <v>0.07757761210155056</v>
       </c>
       <c r="G181" t="n">
         <v>0.009072343654979989</v>
@@ -4633,7 +4633,7 @@
         <v>0.2900000000000009</v>
       </c>
       <c r="F182" t="n">
-        <v>0.02057325866304804</v>
+        <v>0.1003414619294993</v>
       </c>
       <c r="G182" t="n">
         <v>0.008617337019440043</v>
@@ -4656,7 +4656,7 @@
         <v>-0.009999999999999787</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.05442163794987032</v>
+        <v>-0.01478000746024843</v>
       </c>
       <c r="G183" t="n">
         <v>0.007944813311890044</v>
@@ -4679,7 +4679,7 @@
         <v>0.2899999999999991</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02781663057603279</v>
+        <v>-0.02991058705249738</v>
       </c>
       <c r="G184" t="n">
         <v>0.007024707925179996</v>
@@ -4702,7 +4702,7 @@
         <v>-0.3599999999999994</v>
       </c>
       <c r="F185" t="n">
-        <v>0.06942788377823028</v>
+        <v>0.04501730325481113</v>
       </c>
       <c r="G185" t="n">
         <v>0.004911591572739979</v>
@@ -4725,7 +4725,7 @@
         <v>-0.05000000000000071</v>
       </c>
       <c r="F186" t="n">
-        <v>0.1115978998812777</v>
+        <v>0.08873918405882897</v>
       </c>
       <c r="G186" t="n">
         <v>0.002859387479190048</v>
@@ -4748,7 +4748,7 @@
         <v>-0.1799999999999997</v>
       </c>
       <c r="F187" t="n">
-        <v>-0.007805254987977683</v>
+        <v>0.04552017524918028</v>
       </c>
       <c r="G187" t="n">
         <v>0.004341847209939971</v>
@@ -4771,7 +4771,7 @@
         <v>0.09999999999999964</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.09360906992379991</v>
+        <v>-0.005610101834541581</v>
       </c>
       <c r="G188" t="n">
         <v>0.004115501953099994</v>
@@ -4794,7 +4794,7 @@
         <v>-0.2099999999999991</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.05450884841082004</v>
+        <v>-0.1120327562415095</v>
       </c>
       <c r="G189" t="n">
         <v>0.004673958701840064</v>
@@ -4817,7 +4817,7 @@
         <v>0.3300000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.01273745836080842</v>
+        <v>-0.02512163267669099</v>
       </c>
       <c r="G190" t="n">
         <v>0.004926615368359961</v>
@@ -4840,7 +4840,7 @@
         <v>-0.4199999999999999</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.009452209983958682</v>
+        <v>-0.002657225702495936</v>
       </c>
       <c r="G191" t="n">
         <v>0.005036243309329933</v>
@@ -4863,7 +4863,7 @@
         <v>-0.2599999999999998</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.01360498438459601</v>
+        <v>-0.02797564668850061</v>
       </c>
       <c r="G192" t="n">
         <v>0.006443681123989933</v>
@@ -4886,7 +4886,7 @@
         <v>-0.04000000000000092</v>
       </c>
       <c r="F193" t="n">
-        <v>0.009260347390304347</v>
+        <v>0.02735572192356983</v>
       </c>
       <c r="G193" t="n">
         <v>0.00555437953936007</v>
@@ -4909,7 +4909,7 @@
         <v>-0.09999999999999964</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.005858566386151232</v>
+        <v>-0.01069755523539051</v>
       </c>
       <c r="G194" t="n">
         <v>0.004543609943639951</v>
@@ -4932,7 +4932,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="F195" t="n">
-        <v>-0.03046693098010422</v>
+        <v>-0.02887891664080211</v>
       </c>
       <c r="G195" t="n">
         <v>0.004660023810930056</v>
@@ -4955,7 +4955,7 @@
         <v>-0.3000000000000007</v>
       </c>
       <c r="F196" t="n">
-        <v>0.02668847270414876</v>
+        <v>-0.002821188254291229</v>
       </c>
       <c r="G196" t="n">
         <v>0.003781260083849958</v>
@@ -4978,7 +4978,7 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.03516752218648289</v>
+        <v>0.03146560722098624</v>
       </c>
       <c r="G197" t="n">
         <v>0.001345664880160058</v>
@@ -5001,7 +5001,7 @@
         <v>-0.05000000000000071</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.04044935002759686</v>
+        <v>-0.0854337924493116</v>
       </c>
       <c r="G198" t="n">
         <v>0.0004651860974900046</v>
@@ -5024,7 +5024,7 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.01845702494382984</v>
+        <v>0.003150496183211615</v>
       </c>
       <c r="G199" t="n">
         <v>0.0005734356965099608</v>
@@ -5047,7 +5047,7 @@
         <v>-0.2400000000000002</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.009142021786270327</v>
+        <v>-0.03596219045235483</v>
       </c>
       <c r="G200" t="n">
         <v>0.0007831763848299999</v>
@@ -5070,7 +5070,7 @@
         <v>-0.3200000000000003</v>
       </c>
       <c r="F201" t="n">
-        <v>-0.02745692751844064</v>
+        <v>-0.0351518285343726</v>
       </c>
       <c r="G201" t="n">
         <v>0.003078428805279998</v>
@@ -5093,7 +5093,7 @@
         <v>-0.4499999999999993</v>
       </c>
       <c r="F202" t="n">
-        <v>0.009074473131438943</v>
+        <v>0.01755742438218366</v>
       </c>
       <c r="G202" t="n">
         <v>0.004290788519370068</v>
@@ -5116,7 +5116,7 @@
         <v>-0.02000000000000135</v>
       </c>
       <c r="F203" t="n">
-        <v>0.01642463123103166</v>
+        <v>-0.004649804135098634</v>
       </c>
       <c r="G203" t="n">
         <v>0.007225785508520061</v>
@@ -5139,7 +5139,7 @@
         <v>-0.1600000000000001</v>
       </c>
       <c r="F204" t="n">
-        <v>0.03060981344996083</v>
+        <v>0.04650638421392195</v>
       </c>
       <c r="G204" t="n">
         <v>0.001883247130720065</v>
@@ -5162,7 +5162,7 @@
         <v>-0.4100000000000001</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.001340259769655461</v>
+        <v>0.01133712995565173</v>
       </c>
       <c r="G205" t="n">
         <v>3.277034958003355e-05</v>
@@ -5185,7 +5185,7 @@
         <v>-0.1699999999999999</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.03183766336127647</v>
+        <v>-0.02559648447217455</v>
       </c>
       <c r="G206" t="n">
         <v>0.001351841679179984</v>
@@ -5208,7 +5208,7 @@
         <v>-0.3300000000000001</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.0008079941509828714</v>
+        <v>-0.01258193890949233</v>
       </c>
       <c r="G207" t="n">
         <v>0.002277228800579962</v>
@@ -5231,7 +5231,7 @@
         <v>-0.02999999999999936</v>
       </c>
       <c r="F208" t="n">
-        <v>0.02106837479141088</v>
+        <v>0.005253123189863373</v>
       </c>
       <c r="G208" t="n">
         <v>0.001464485576580046</v>
@@ -5254,7 +5254,7 @@
         <v>-0.2799999999999994</v>
       </c>
       <c r="F209" t="n">
-        <v>-0.006003364652152676</v>
+        <v>0.007943534146728659</v>
       </c>
       <c r="G209" t="n">
         <v>0.001542735818059953</v>
@@ -5277,7 +5277,7 @@
         <v>-0.6400000000000006</v>
       </c>
       <c r="F210" t="n">
-        <v>-0.03608141958566335</v>
+        <v>-0.02655402124075668</v>
       </c>
       <c r="G210" t="n">
         <v>-0.001914511295135952</v>
@@ -5300,7 +5300,7 @@
         <v>0.0600000000000005</v>
       </c>
       <c r="F211" t="n">
-        <v>0.005447359899046766</v>
+        <v>-0.01523119995815403</v>
       </c>
       <c r="G211" t="n">
         <v>0.0006182069911500321</v>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.004512149559480427</v>
+        <v>0.003379588178072268</v>
       </c>
       <c r="G212" t="n">
         <v>0.002218252132200007</v>
@@ -5346,7 +5346,7 @@
         <v>-0.1500000000000004</v>
       </c>
       <c r="F213" t="n">
-        <v>0.06292792515102263</v>
+        <v>0.0160272023107968</v>
       </c>
       <c r="G213" t="n">
         <v>0.00313608456802001</v>
@@ -5369,7 +5369,7 @@
         <v>-0.04999999999999982</v>
       </c>
       <c r="F214" t="n">
-        <v>0.02375721707653344</v>
+        <v>0.1027805998044906</v>
       </c>
       <c r="G214" t="n">
         <v>0.004350732577500054</v>
@@ -5392,7 +5392,7 @@
         <v>0.0699999999999994</v>
       </c>
       <c r="F215" t="n">
-        <v>0.008601770188046309</v>
+        <v>-0.02338184426218959</v>
       </c>
       <c r="G215" t="n">
         <v>0.006096834463740066</v>
@@ -5415,7 +5415,7 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="F216" t="n">
-        <v>0.001487583187095076</v>
+        <v>0.01790741550437502</v>
       </c>
       <c r="G216" t="n">
         <v>0.004077630025440015</v>
@@ -5438,7 +5438,7 @@
         <v>-0.05999999999999961</v>
       </c>
       <c r="F217" t="n">
-        <v>0.04987076558014802</v>
+        <v>-0.01258611982550928</v>
       </c>
       <c r="G217" t="n">
         <v>0.005494383583619964</v>
@@ -5461,7 +5461,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="F218" t="n">
-        <v>0.02377346567106731</v>
+        <v>0.08740598158872004</v>
       </c>
       <c r="G218" t="n">
         <v>0.004446895093550012</v>
@@ -5484,7 +5484,7 @@
         <v>0.1199999999999992</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.02713706846051434</v>
+        <v>-0.03697794128864196</v>
       </c>
       <c r="G219" t="n">
         <v>0.003725449969710013</v>
@@ -5507,7 +5507,7 @@
         <v>-0.01999999999999957</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00758120097805115</v>
+        <v>0.0003308665761174723</v>
       </c>
       <c r="G220" t="n">
         <v>0.004123163341420053</v>
@@ -5530,7 +5530,7 @@
         <v>0.2400000000000002</v>
       </c>
       <c r="F221" t="n">
-        <v>0.01465544064331681</v>
+        <v>0.01418781277318537</v>
       </c>
       <c r="G221" t="n">
         <v>0.00566083817394997</v>
@@ -5553,7 +5553,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.0122942610482939</v>
+        <v>0.008172902924568071</v>
       </c>
       <c r="G222" t="n">
         <v>0.005474918408699949</v>
@@ -5576,7 +5576,7 @@
         <v>-0.0600000000000005</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.01061077774614283</v>
+        <v>-0.0260032229266125</v>
       </c>
       <c r="G223" t="n">
         <v>0.002871707883030013</v>
@@ -5599,7 +5599,7 @@
         <v>0.08999999999999986</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.01097417570411263</v>
+        <v>0.008103836277927101</v>
       </c>
       <c r="G224" t="n">
         <v>0.002273742868530064</v>
@@ -5622,7 +5622,7 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.007543133279668268</v>
+        <v>-0.007187761083467414</v>
       </c>
       <c r="G225" t="n">
         <v>0.001795069579860069</v>
@@ -5645,7 +5645,7 @@
         <v>-0.03000000000000025</v>
       </c>
       <c r="F226" t="n">
-        <v>0.00333175671957342</v>
+        <v>-0.01209097460137887</v>
       </c>
       <c r="G226" t="n">
         <v>0.004037201036399977</v>
@@ -5668,7 +5668,7 @@
         <v>-0.1399999999999997</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.01007322045592307</v>
+        <v>0.01156804280759527</v>
       </c>
       <c r="G227" t="n">
         <v>0.001890104850709946</v>
@@ -5691,7 +5691,7 @@
         <v>-0.2599999999999998</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.01485788093153051</v>
+        <v>-0.03627531556230323</v>
       </c>
       <c r="G228" t="n">
         <v>0.00362693384420993</v>
@@ -5714,7 +5714,7 @@
         <v>-0.1900000000000004</v>
       </c>
       <c r="F229" t="n">
-        <v>0.03672173755535901</v>
+        <v>0.005742029972716445</v>
       </c>
       <c r="G229" t="n">
         <v>0.002998703250840009</v>
@@ -5737,7 +5737,7 @@
         <v>-0.2699999999999996</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.009633103541038857</v>
+        <v>0.04932225013608704</v>
       </c>
       <c r="G230" t="n">
         <v>0.001239224358450031</v>
@@ -5760,7 +5760,7 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.009026536404083352</v>
+        <v>-0.03021312479914329</v>
       </c>
       <c r="G231" t="n">
         <v>0.001454780704689966</v>
@@ -5783,7 +5783,7 @@
         <v>-0.3300000000000001</v>
       </c>
       <c r="F232" t="n">
-        <v>-0.007920563853168083</v>
+        <v>-0.01348611536425537</v>
       </c>
       <c r="G232" t="n">
         <v>0.001789776428729937</v>
@@ -5806,7 +5806,7 @@
         <v>-0.3099999999999996</v>
       </c>
       <c r="F233" t="n">
-        <v>-0.01474133128772515</v>
+        <v>0.009906114888228679</v>
       </c>
       <c r="G233" t="n">
         <v>0.0009156020393599817</v>
@@ -5829,7 +5829,7 @@
         <v>-0.1100000000000003</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.01796342926564165</v>
+        <v>-0.03965198342855736</v>
       </c>
       <c r="G234" t="n">
         <v>-0.0001623411223340554</v>
@@ -5852,7 +5852,7 @@
         <v>-0.09999999999999964</v>
       </c>
       <c r="F235" t="n">
-        <v>0.03446672754338831</v>
+        <v>0.01971846665903509</v>
       </c>
       <c r="G235" t="n">
         <v>0.001658373366170025</v>
@@ -5875,7 +5875,7 @@
         <v>-0.1500000000000004</v>
       </c>
       <c r="F236" t="n">
-        <v>0.1416999379775286</v>
+        <v>0.04927235870298308</v>
       </c>
       <c r="G236" t="n">
         <v>0.004246100309880063</v>
@@ -5898,7 +5898,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="F237" t="n">
-        <v>0.01406367880098358</v>
+        <v>0.1414764653011638</v>
       </c>
       <c r="G237" t="n">
         <v>0.006710288050429938</v>
@@ -5921,7 +5921,7 @@
         <v>-0.5200000000000005</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.03073962066610125</v>
+        <v>-0.04937647034061232</v>
       </c>
       <c r="G238" t="n">
         <v>0.00346866915231999</v>
@@ -5944,7 +5944,7 @@
         <v>-0.4799999999999995</v>
       </c>
       <c r="F239" t="n">
-        <v>-0.04663723275649367</v>
+        <v>-0.04233921728163192</v>
       </c>
       <c r="G239" t="n">
         <v>0.00399311356506999</v>
@@ -5967,7 +5967,7 @@
         <v>-0.7599999999999998</v>
       </c>
       <c r="F240" t="n">
-        <v>0.02985981874337718</v>
+        <v>0.01041587638228236</v>
       </c>
       <c r="G240" t="n">
         <v>0.005456672424009951</v>
@@ -5990,7 +5990,7 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="F241" t="n">
-        <v>0.03451990592783627</v>
+        <v>0.04149971936511321</v>
       </c>
       <c r="G241" t="n">
         <v>0.005106928943699955</v>
@@ -6013,7 +6013,7 @@
         <v>0.009999999999999787</v>
       </c>
       <c r="F242" t="n">
-        <v>0.02581467802379311</v>
+        <v>0.00513211749273168</v>
       </c>
       <c r="G242" t="n">
         <v>0.002035616221899943</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>0.02523821425204886</v>
+        <v>0.06530723983671294</v>
       </c>
       <c r="G243" t="n">
         <v>0.004314313517979968</v>
@@ -6059,7 +6059,7 @@
         <v>-0.1100000000000003</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.01066758746695218</v>
+        <v>0.02246837104567323</v>
       </c>
       <c r="G244" t="n">
         <v>0.005914547378680055</v>
@@ -6082,7 +6082,7 @@
         <v>0.1100000000000003</v>
       </c>
       <c r="F245" t="n">
-        <v>-0.03472916906090617</v>
+        <v>-0.05582703626521113</v>
       </c>
       <c r="G245" t="n">
         <v>0.00556487015120993</v>
@@ -6105,7 +6105,7 @@
         <v>0.1399999999999997</v>
       </c>
       <c r="F246" t="n">
-        <v>0.002365543432915729</v>
+        <v>-0.030976199209098</v>
       </c>
       <c r="G246" t="n">
         <v>0.002754788212699992</v>
@@ -6128,7 +6128,7 @@
         <v>-0.25</v>
       </c>
       <c r="F247" t="n">
-        <v>-0.001017545260995512</v>
+        <v>0.02181890131998099</v>
       </c>
       <c r="G247" t="n">
         <v>0.005965966158839962</v>
@@ -6151,7 +6151,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="F248" t="n">
-        <v>0.001080161641091593</v>
+        <v>-0.01953253704101154</v>
       </c>
       <c r="G248" t="n">
         <v>0.005109967945259939</v>
@@ -6174,7 +6174,7 @@
         <v>0.29</v>
       </c>
       <c r="F249" t="n">
-        <v>0.02320797831499721</v>
+        <v>0.02127923232824891</v>
       </c>
       <c r="G249" t="n">
         <v>0.003910996156109974</v>
@@ -6197,7 +6197,7 @@
         <v>0.2800000000000002</v>
       </c>
       <c r="F250" t="n">
-        <v>-0.02850254491988569</v>
+        <v>-0.01052890329299938</v>
       </c>
       <c r="G250" t="n">
         <v>0.008401884090699951</v>
@@ -6220,7 +6220,7 @@
         <v>0.3099999999999996</v>
       </c>
       <c r="F251" t="n">
-        <v>-0.01892575709716837</v>
+        <v>-0.02090778568512253</v>
       </c>
       <c r="G251" t="n">
         <v>0.009056480891139956</v>
@@ -6243,7 +6243,7 @@
         <v>0.6600000000000001</v>
       </c>
       <c r="F252" t="n">
-        <v>0.01737894282389618</v>
+        <v>-0.007849655324053906</v>
       </c>
       <c r="G252" t="n">
         <v>0.005481352627989935</v>
@@ -6266,7 +6266,7 @@
         <v>0.54</v>
       </c>
       <c r="F253" t="n">
-        <v>-0.004165632990288159</v>
+        <v>0.004009913496503259</v>
       </c>
       <c r="G253" t="n">
         <v>0.007389048936200027</v>
@@ -6289,7 +6289,7 @@
         <v>0.2700000000000005</v>
       </c>
       <c r="F254" t="n">
-        <v>-0.008962176563653834</v>
+        <v>0.003588675133912922</v>
       </c>
       <c r="G254" t="n">
         <v>0.008492699244570048</v>
@@ -6312,7 +6312,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="F255" t="n">
-        <v>-0.02044904347804</v>
+        <v>-0.008412963491434056</v>
       </c>
       <c r="G255" t="n">
         <v>0.01098332848831006</v>
@@ -6335,7 +6335,7 @@
         <v>0.5200000000000005</v>
       </c>
       <c r="F256" t="n">
-        <v>0.01732722182368374</v>
+        <v>-0.02195419670515708</v>
       </c>
       <c r="G256" t="n">
         <v>0.008310229019150057</v>
@@ -6358,7 +6358,7 @@
         <v>0.29</v>
       </c>
       <c r="F257" t="n">
-        <v>0.01461643416915681</v>
+        <v>0.05216045535887659</v>
       </c>
       <c r="G257" t="n">
         <v>0.005389905109930026</v>
@@ -6381,7 +6381,7 @@
         <v>0.669999999999999</v>
       </c>
       <c r="F258" t="n">
-        <v>0.03758566030615018</v>
+        <v>0.003184824330654479</v>
       </c>
       <c r="G258" t="n">
         <v>0.005940716833329986</v>
@@ -6404,7 +6404,7 @@
         <v>1.280000000000001</v>
       </c>
       <c r="F259" t="n">
-        <v>0.007474171364215465</v>
+        <v>0.03065343470990456</v>
       </c>
       <c r="G259" t="n">
         <v>0.009668215106830047</v>
@@ -6427,7 +6427,7 @@
         <v>10.3</v>
       </c>
       <c r="F260" t="n">
-        <v>0.2932794905346059</v>
+        <v>0.1886978382006959</v>
       </c>
       <c r="G260" t="n">
         <v>0.07422065586035999</v>
@@ -6450,7 +6450,7 @@
         <v>-2.790000000000003</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.2838666467222684</v>
+        <v>-0.1148265749296744</v>
       </c>
       <c r="G261" t="n">
         <v>0.01338921070059996</v>
@@ -6473,7 +6473,7 @@
         <v>-3.829999999999998</v>
       </c>
       <c r="F262" t="n">
-        <v>-0.2073289168919379</v>
+        <v>-0.1836472210648195</v>
       </c>
       <c r="G262" t="n">
         <v>0.002442988491170013</v>
@@ -6496,7 +6496,7 @@
         <v>-3.619999999999999</v>
       </c>
       <c r="F263" t="n">
-        <v>-0.10190763832661</v>
+        <v>-0.1193435112376875</v>
       </c>
       <c r="G263" t="n">
         <v>-0.0009676116325489658</v>
@@ -6519,7 +6519,7 @@
         <v>-0.7300000000000004</v>
       </c>
       <c r="F264" t="n">
-        <v>0.01807403177006783</v>
+        <v>-0.1597264493822488</v>
       </c>
       <c r="G264" t="n">
         <v>-0.001263034468446023</v>
@@ -6542,7 +6542,7 @@
         <v>-0.96</v>
       </c>
       <c r="F265" t="n">
-        <v>0.03660230630360495</v>
+        <v>0.1669027533538872</v>
       </c>
       <c r="G265" t="n">
         <v>0.0005803726451600256</v>
@@ -6565,7 +6565,7 @@
         <v>-0.2600000000000007</v>
       </c>
       <c r="F266" t="n">
-        <v>-0.009490162938203817</v>
+        <v>-0.0296368383754082</v>
       </c>
       <c r="G266" t="n">
         <v>0.002755552356779987</v>
@@ -6588,7 +6588,7 @@
         <v>-0.009999999999999787</v>
       </c>
       <c r="F267" t="n">
-        <v>0.02140599835118717</v>
+        <v>-0.08556394273519441</v>
       </c>
       <c r="G267" t="n">
         <v>0.001752962138429979</v>
@@ -6611,7 +6611,7 @@
         <v>-0.3600000000000003</v>
       </c>
       <c r="F268" t="n">
-        <v>-0.004310084937409364</v>
+        <v>0.1082841545885733</v>
       </c>
       <c r="G268" t="n">
         <v>0.002377640868620006</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.07838653616649793</v>
+        <v>-0.01212391343514518</v>
       </c>
       <c r="G269" t="n">
         <v>0.004829570429619992</v>
@@ -6657,7 +6657,7 @@
         <v>-0.3099999999999996</v>
       </c>
       <c r="F270" t="n">
-        <v>0.04545984575936046</v>
+        <v>0.1438650024948211</v>
       </c>
       <c r="G270" t="n">
         <v>0.004352907952259955</v>
@@ -6680,7 +6680,7 @@
         <v>0.1100000000000003</v>
       </c>
       <c r="F271" t="n">
-        <v>0.05517155312323574</v>
+        <v>0.003084844113865337</v>
       </c>
       <c r="G271" t="n">
         <v>0.002621897405140032</v>
@@ -6703,7 +6703,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="F272" t="n">
-        <v>0.04461641416724849</v>
+        <v>0.0602036108081121</v>
       </c>
       <c r="G272" t="n">
         <v>0.002077754254899986</v>
@@ -6726,7 +6726,7 @@
         <v>-0.1899999999999995</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0622987359601801</v>
+        <v>0.03193223451698568</v>
       </c>
       <c r="G273" t="n">
         <v>0.001749579722779941</v>
@@ -6749,7 +6749,7 @@
         <v>0.08999999999999986</v>
       </c>
       <c r="F274" t="n">
-        <v>-0.02225881607099289</v>
+        <v>0.03354243199492046</v>
       </c>
       <c r="G274" t="n">
         <v>0.004485309989610045</v>
@@ -6772,7 +6772,7 @@
         <v>0.08000000000000007</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0505453044481472</v>
+        <v>0.01283978197374225</v>
       </c>
       <c r="G275" t="n">
         <v>0.006295380904410024</v>
@@ -6795,7 +6795,7 @@
         <v>0.5</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0823824278595513</v>
+        <v>0.08731793631218476</v>
       </c>
       <c r="G276" t="n">
         <v>0.008854078956020004</v>
@@ -6818,7 +6818,7 @@
         <v>2.5</v>
       </c>
       <c r="F277" t="n">
-        <v>0.05181300800967215</v>
+        <v>0.03565172352878143</v>
       </c>
       <c r="G277" t="n">
         <v>0.008550520996100062</v>
@@ -6841,7 +6841,7 @@
         <v>1.949999999999999</v>
       </c>
       <c r="F278" t="n">
-        <v>0.01393308909657431</v>
+        <v>0.05047826503600295</v>
       </c>
       <c r="G278" t="n">
         <v>0.01074994619527999</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>d_cpi</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>d_oilp_u</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -498,6 +503,7 @@
       <c r="G2" t="n">
         <v>0.01895152589936998</v>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -521,6 +527,7 @@
       <c r="G3" t="n">
         <v>0.02122662030344003</v>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -544,6 +551,7 @@
       <c r="G4" t="n">
         <v>0.01261177188760996</v>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -567,6 +575,7 @@
       <c r="G5" t="n">
         <v>0.01353257135855998</v>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -590,6 +599,7 @@
       <c r="G6" t="n">
         <v>0.01404514472274002</v>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -613,6 +623,7 @@
       <c r="G7" t="n">
         <v>0.01908594264962005</v>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -636,6 +647,7 @@
       <c r="G8" t="n">
         <v>0.01872066909541005</v>
       </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -659,6 +671,7 @@
       <c r="G9" t="n">
         <v>0.01828047327264997</v>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -682,6 +695,7 @@
       <c r="G10" t="n">
         <v>0.01777552745665005</v>
       </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -705,6 +719,7 @@
       <c r="G11" t="n">
         <v>0.01788956464814007</v>
       </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -728,6 +743,7 @@
       <c r="G12" t="n">
         <v>0.008811461068369936</v>
       </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -751,6 +767,7 @@
       <c r="G13" t="n">
         <v>0.01018731832520999</v>
       </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -774,6 +791,7 @@
       <c r="G14" t="n">
         <v>0.01176929888223</v>
       </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -797,6 +815,7 @@
       <c r="G15" t="n">
         <v>0.01110483158052006</v>
       </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -820,6 +839,7 @@
       <c r="G16" t="n">
         <v>0.01137345335827007</v>
       </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -843,6 +863,7 @@
       <c r="G17" t="n">
         <v>0.01325819720813996</v>
       </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -866,6 +887,7 @@
       <c r="G18" t="n">
         <v>0.01727719517603006</v>
       </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -889,6 +911,7 @@
       <c r="G19" t="n">
         <v>0.008053886781229948</v>
       </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -912,6 +935,7 @@
       <c r="G20" t="n">
         <v>0.01082931306166998</v>
       </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -935,6 +959,7 @@
       <c r="G21" t="n">
         <v>0.01188233262636004</v>
       </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -958,6 +983,7 @@
       <c r="G22" t="n">
         <v>0.01687253555634996</v>
       </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -981,6 +1007,7 @@
       <c r="G23" t="n">
         <v>0.007182159936120059</v>
       </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1004,6 +1031,7 @@
       <c r="G24" t="n">
         <v>0.01110197047468006</v>
       </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1027,6 +1055,7 @@
       <c r="G25" t="n">
         <v>0.01071790294025007</v>
       </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1050,6 +1079,7 @@
       <c r="G26" t="n">
         <v>0.00966622823324002</v>
       </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1073,6 +1103,7 @@
       <c r="G27" t="n">
         <v>0.01092252402948006</v>
       </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1096,6 +1127,7 @@
       <c r="G28" t="n">
         <v>0.01411668525218005</v>
       </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1119,6 +1151,7 @@
       <c r="G29" t="n">
         <v>0.01287332452043003</v>
       </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1142,6 +1175,7 @@
       <c r="G30" t="n">
         <v>0.01069507087383002</v>
       </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1165,6 +1199,7 @@
       <c r="G31" t="n">
         <v>0.01274161769922998</v>
       </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1188,6 +1223,7 @@
       <c r="G32" t="n">
         <v>0.01037192998169999</v>
       </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1211,6 +1247,7 @@
       <c r="G33" t="n">
         <v>0.01047815097995993</v>
       </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1234,6 +1271,7 @@
       <c r="G34" t="n">
         <v>0.008266407971549938</v>
       </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1257,6 +1295,7 @@
       <c r="G35" t="n">
         <v>0.009938643797299989</v>
       </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1280,6 +1319,7 @@
       <c r="G36" t="n">
         <v>0.01046464245029</v>
       </c>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1303,6 +1343,7 @@
       <c r="G37" t="n">
         <v>0.005234487904029948</v>
       </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1326,6 +1367,7 @@
       <c r="G38" t="n">
         <v>0.008858914151140027</v>
       </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1349,6 +1391,7 @@
       <c r="G39" t="n">
         <v>0.01023327924954003</v>
       </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1372,6 +1415,7 @@
       <c r="G40" t="n">
         <v>0.008038403994300012</v>
       </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1395,6 +1439,7 @@
       <c r="G41" t="n">
         <v>0.008856058508740005</v>
       </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1418,6 +1463,7 @@
       <c r="G42" t="n">
         <v>0.004563453493379939</v>
       </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1441,6 +1487,7 @@
       <c r="G43" t="n">
         <v>0.006407438092259952</v>
       </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1464,6 +1511,7 @@
       <c r="G44" t="n">
         <v>0.007217168532790055</v>
       </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1487,6 +1535,7 @@
       <c r="G45" t="n">
         <v>0.01021202209668005</v>
       </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1510,6 +1559,7 @@
       <c r="G46" t="n">
         <v>0.007955767229649951</v>
       </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1533,6 +1583,7 @@
       <c r="G47" t="n">
         <v>0.009737639292039973</v>
       </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1556,6 +1607,7 @@
       <c r="G48" t="n">
         <v>0.01213930050494</v>
       </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1579,6 +1631,7 @@
       <c r="G49" t="n">
         <v>0.01300106930691996</v>
       </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1602,6 +1655,7 @@
       <c r="G50" t="n">
         <v>0.009511005805420041</v>
       </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1625,6 +1679,7 @@
       <c r="G51" t="n">
         <v>0.01177578026451997</v>
       </c>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1648,6 +1703,7 @@
       <c r="G52" t="n">
         <v>0.009979456839739952</v>
       </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1671,6 +1727,7 @@
       <c r="G53" t="n">
         <v>0.009627307626760029</v>
       </c>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1694,6 +1751,7 @@
       <c r="G54" t="n">
         <v>0.01322602672203004</v>
       </c>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1717,6 +1775,7 @@
       <c r="G55" t="n">
         <v>0.008657916263319975</v>
       </c>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1740,6 +1799,7 @@
       <c r="G56" t="n">
         <v>0.01289635417089997</v>
       </c>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1763,6 +1823,7 @@
       <c r="G57" t="n">
         <v>0.01163742588776998</v>
       </c>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1786,6 +1847,7 @@
       <c r="G58" t="n">
         <v>0.008728644207370025</v>
       </c>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1809,6 +1871,7 @@
       <c r="G59" t="n">
         <v>0.008353217989310054</v>
       </c>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1832,6 +1895,7 @@
       <c r="G60" t="n">
         <v>0.007276237742070038</v>
       </c>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1855,6 +1919,7 @@
       <c r="G61" t="n">
         <v>0.006849199070800012</v>
       </c>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1878,6 +1943,7 @@
       <c r="G62" t="n">
         <v>0.007439981924020032</v>
       </c>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1901,6 +1967,7 @@
       <c r="G63" t="n">
         <v>0.006090186034290071</v>
       </c>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -1924,6 +1991,7 @@
       <c r="G64" t="n">
         <v>0.006672050197499999</v>
       </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -1947,6 +2015,7 @@
       <c r="G65" t="n">
         <v>0.006764373674029969</v>
       </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -1970,6 +2039,7 @@
       <c r="G66" t="n">
         <v>0.01156969485055995</v>
       </c>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -1993,6 +2063,7 @@
       <c r="G67" t="n">
         <v>0.01279692200387004</v>
       </c>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2016,6 +2087,7 @@
       <c r="G68" t="n">
         <v>0.007630076948509981</v>
       </c>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2039,6 +2111,7 @@
       <c r="G69" t="n">
         <v>0.004168616857169951</v>
       </c>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2062,6 +2135,7 @@
       <c r="G70" t="n">
         <v>0.005620699017379991</v>
       </c>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2085,6 +2159,7 @@
       <c r="G71" t="n">
         <v>0.00464551919507997</v>
       </c>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2108,6 +2183,7 @@
       <c r="G72" t="n">
         <v>0.009065160646169943</v>
       </c>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2131,6 +2207,7 @@
       <c r="G73" t="n">
         <v>0.009624012460329965</v>
       </c>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2154,6 +2231,7 @@
       <c r="G74" t="n">
         <v>0.005434623893069954</v>
       </c>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2177,6 +2255,7 @@
       <c r="G75" t="n">
         <v>0.003441872800579944</v>
       </c>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2200,6 +2279,7 @@
       <c r="G76" t="n">
         <v>0.005847020788019961</v>
       </c>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2223,6 +2303,7 @@
       <c r="G77" t="n">
         <v>0.006746764820129983</v>
       </c>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2246,6 +2327,7 @@
       <c r="G78" t="n">
         <v>0.004688485339869999</v>
       </c>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2269,6 +2351,7 @@
       <c r="G79" t="n">
         <v>0.007530290770140055</v>
       </c>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2292,6 +2375,7 @@
       <c r="G80" t="n">
         <v>0.005334088669160053</v>
       </c>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2315,6 +2399,7 @@
       <c r="G81" t="n">
         <v>0.006443408421090027</v>
       </c>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2338,6 +2423,7 @@
       <c r="G82" t="n">
         <v>0.007073571161400025</v>
       </c>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2361,6 +2447,7 @@
       <c r="G83" t="n">
         <v>0.01118374449167007</v>
       </c>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -2384,6 +2471,7 @@
       <c r="G84" t="n">
         <v>0.01093971192647004</v>
       </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -2407,6 +2495,7 @@
       <c r="G85" t="n">
         <v>0.00822996992898993</v>
       </c>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -2430,6 +2519,7 @@
       <c r="G86" t="n">
         <v>0.01202636315351001</v>
       </c>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -2453,6 +2543,7 @@
       <c r="G87" t="n">
         <v>0.01697853727034001</v>
       </c>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -2476,6 +2567,7 @@
       <c r="G88" t="n">
         <v>0.01205264934631998</v>
       </c>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -2499,6 +2591,7 @@
       <c r="G89" t="n">
         <v>0.01037268394945002</v>
       </c>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -2522,6 +2615,7 @@
       <c r="G90" t="n">
         <v>0.01137592772554001</v>
       </c>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -2545,6 +2639,7 @@
       <c r="G91" t="n">
         <v>0.008656817106510032</v>
       </c>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -2568,6 +2663,7 @@
       <c r="G92" t="n">
         <v>0.01127559795357001</v>
       </c>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -2591,6 +2687,7 @@
       <c r="G93" t="n">
         <v>0.01489645475328004</v>
       </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -2614,6 +2711,7 @@
       <c r="G94" t="n">
         <v>0.01417300684468998</v>
       </c>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -2637,6 +2735,7 @@
       <c r="G95" t="n">
         <v>0.01130844994205006</v>
       </c>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -2660,6 +2759,7 @@
       <c r="G96" t="n">
         <v>0.007262381115289997</v>
       </c>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -2683,6 +2783,7 @@
       <c r="G97" t="n">
         <v>0.01051401219267007</v>
       </c>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -2706,6 +2807,7 @@
       <c r="G98" t="n">
         <v>0.01181431566699004</v>
       </c>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -2729,6 +2831,7 @@
       <c r="G99" t="n">
         <v>0.009947674134159996</v>
       </c>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -2752,6 +2855,7 @@
       <c r="G100" t="n">
         <v>0.00833288538751006</v>
       </c>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -2775,6 +2879,7 @@
       <c r="G101" t="n">
         <v>0.006082952594129978</v>
       </c>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -2798,6 +2903,7 @@
       <c r="G102" t="n">
         <v>0.01238610281150997</v>
       </c>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -2821,6 +2927,7 @@
       <c r="G103" t="n">
         <v>0.01323333033468003</v>
       </c>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -2844,6 +2951,7 @@
       <c r="G104" t="n">
         <v>0.01219516780697006</v>
       </c>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -2867,6 +2975,7 @@
       <c r="G105" t="n">
         <v>0.007718092753139985</v>
       </c>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -2890,6 +2999,7 @@
       <c r="G106" t="n">
         <v>0.006390406051820036</v>
       </c>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -2913,6 +3023,7 @@
       <c r="G107" t="n">
         <v>0.007535739456189958</v>
       </c>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -2936,6 +3047,7 @@
       <c r="G108" t="n">
         <v>0.008172026040579965</v>
       </c>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -2959,6 +3071,7 @@
       <c r="G109" t="n">
         <v>0.006356422329459975</v>
       </c>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -2982,6 +3095,7 @@
       <c r="G110" t="n">
         <v>0.003205552789369932</v>
       </c>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -3005,6 +3119,7 @@
       <c r="G111" t="n">
         <v>0.001102267460850044</v>
       </c>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -3028,6 +3143,7 @@
       <c r="G112" t="n">
         <v>0.00304121286126005</v>
       </c>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -3051,6 +3167,7 @@
       <c r="G113" t="n">
         <v>0.003117277681839994</v>
       </c>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -3074,6 +3191,7 @@
       <c r="G114" t="n">
         <v>0.00579937335059995</v>
       </c>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -3097,6 +3215,7 @@
       <c r="G115" t="n">
         <v>0.005729057196460019</v>
       </c>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -3120,6 +3239,7 @@
       <c r="G116" t="n">
         <v>0.005488255585959933</v>
       </c>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -3143,6 +3263,7 @@
       <c r="G117" t="n">
         <v>0.003865823772730011</v>
       </c>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -3166,6 +3287,7 @@
       <c r="G118" t="n">
         <v>0.005691168840029946</v>
       </c>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3189,6 +3311,7 @@
       <c r="G119" t="n">
         <v>0.005413140478750051</v>
       </c>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -3212,6 +3335,7 @@
       <c r="G120" t="n">
         <v>0.00520213503582994</v>
       </c>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -3235,6 +3359,9 @@
       <c r="G121" t="n">
         <v>0.01145007665886993</v>
       </c>
+      <c r="H121" t="n">
+        <v>-0.05382291278422713</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -3258,6 +3385,9 @@
       <c r="G122" t="n">
         <v>0.01156403213862006</v>
       </c>
+      <c r="H122" t="n">
+        <v>-0.01669820730076221</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -3281,6 +3411,9 @@
       <c r="G123" t="n">
         <v>0.006032086531269982</v>
       </c>
+      <c r="H123" t="n">
+        <v>-0.05154042153572558</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -3304,6 +3437,9 @@
       <c r="G124" t="n">
         <v>0.00817377088588998</v>
       </c>
+      <c r="H124" t="n">
+        <v>-0.07330281913115932</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -3327,6 +3463,9 @@
       <c r="G125" t="n">
         <v>0.00945439324958997</v>
       </c>
+      <c r="H125" t="n">
+        <v>-0.03630920940450899</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -3350,6 +3489,9 @@
       <c r="G126" t="n">
         <v>0.01385167669848997</v>
       </c>
+      <c r="H126" t="n">
+        <v>-0.1501305285132455</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -3373,6 +3515,9 @@
       <c r="G127" t="n">
         <v>0.00533649245882998</v>
       </c>
+      <c r="H127" t="n">
+        <v>-0.02379360905419148</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -3396,6 +3541,9 @@
       <c r="G128" t="n">
         <v>0.005501705088470032</v>
       </c>
+      <c r="H128" t="n">
+        <v>-0.08356545131594384</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -3419,6 +3567,9 @@
       <c r="G129" t="n">
         <v>0.00526884625479994</v>
       </c>
+      <c r="H129" t="n">
+        <v>0.07415175403240948</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -3442,6 +3593,9 @@
       <c r="G130" t="n">
         <v>0.005423510036009986</v>
       </c>
+      <c r="H130" t="n">
+        <v>0.03783463392486475</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -3465,6 +3619,9 @@
       <c r="G131" t="n">
         <v>0.003699062056320059</v>
       </c>
+      <c r="H131" t="n">
+        <v>-0.0363449083722216</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -3488,6 +3645,9 @@
       <c r="G132" t="n">
         <v>0.001123078002959943</v>
       </c>
+      <c r="H132" t="n">
+        <v>-0.01781803690666539</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -3511,6 +3671,9 @@
       <c r="G133" t="n">
         <v>0.003360111474709981</v>
       </c>
+      <c r="H133" t="n">
+        <v>0.1087355284495679</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -3534,6 +3697,9 @@
       <c r="G134" t="n">
         <v>0.002593999127190045</v>
       </c>
+      <c r="H134" t="n">
+        <v>-0.0424035323192955</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -3557,6 +3723,9 @@
       <c r="G135" t="n">
         <v>0.005677376271469967</v>
       </c>
+      <c r="H135" t="n">
+        <v>-0.02625633456655407</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -3580,6 +3749,9 @@
       <c r="G136" t="n">
         <v>0.004239602216750029</v>
       </c>
+      <c r="H136" t="n">
+        <v>0.05227542720551348</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -3603,6 +3775,9 @@
       <c r="G137" t="n">
         <v>0.002878098793409976</v>
       </c>
+      <c r="H137" t="n">
+        <v>-0.04362984021265959</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -3626,6 +3801,9 @@
       <c r="G138" t="n">
         <v>-0.003526792094934024</v>
       </c>
+      <c r="H138" t="n">
+        <v>-0.0917186834974828</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -3649,6 +3827,9 @@
       <c r="G139" t="n">
         <v>0.001593868617840002</v>
       </c>
+      <c r="H139" t="n">
+        <v>0.003057979985370274</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -3672,6 +3853,9 @@
       <c r="G140" t="n">
         <v>0.005177753001279939</v>
       </c>
+      <c r="H140" t="n">
+        <v>0.02854698088935237</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -3695,6 +3879,9 @@
       <c r="G141" t="n">
         <v>0.003983115638520047</v>
       </c>
+      <c r="H141" t="n">
+        <v>0.1503535656022139</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -3718,6 +3905,9 @@
       <c r="G142" t="n">
         <v>0.00575381130582997</v>
       </c>
+      <c r="H142" t="n">
+        <v>0.07821306196594424</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -3741,6 +3931,9 @@
       <c r="G143" t="n">
         <v>0.01014134711517002</v>
       </c>
+      <c r="H143" t="n">
+        <v>-0.1257674410424183</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -3764,6 +3957,9 @@
       <c r="G144" t="n">
         <v>0.01300291921642995</v>
       </c>
+      <c r="H144" t="n">
+        <v>-0.07051458767246466</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -3787,6 +3983,9 @@
       <c r="G145" t="n">
         <v>0.006596207761400024</v>
       </c>
+      <c r="H145" t="n">
+        <v>0.03418065587437091</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -3810,6 +4009,9 @@
       <c r="G146" t="n">
         <v>0.008402691392250005</v>
       </c>
+      <c r="H146" t="n">
+        <v>0.003739003945602448</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -3833,6 +4035,9 @@
       <c r="G147" t="n">
         <v>0.00539563979167994</v>
       </c>
+      <c r="H147" t="n">
+        <v>-0.007645436349183576</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -3856,6 +4061,9 @@
       <c r="G148" t="n">
         <v>0.003435637058589975</v>
       </c>
+      <c r="H148" t="n">
+        <v>0.006275885804139847</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -3879,6 +4087,9 @@
       <c r="G149" t="n">
         <v>0.003583095498210014</v>
       </c>
+      <c r="H149" t="n">
+        <v>-0.05528622443033893</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -3902,6 +4113,9 @@
       <c r="G150" t="n">
         <v>0.001854557321060071</v>
       </c>
+      <c r="H150" t="n">
+        <v>0.05793571663850994</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -3925,6 +4139,9 @@
       <c r="G151" t="n">
         <v>0.003580883366110044</v>
       </c>
+      <c r="H151" t="n">
+        <v>0.01613905090508005</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -3948,6 +4165,9 @@
       <c r="G152" t="n">
         <v>0.002843329322519992</v>
       </c>
+      <c r="H152" t="n">
+        <v>0.0590743644361762</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -3971,6 +4191,9 @@
       <c r="G153" t="n">
         <v>0.005877191111489992</v>
       </c>
+      <c r="H153" t="n">
+        <v>0.0140043009790638</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -3994,6 +4217,9 @@
       <c r="G154" t="n">
         <v>0.007203875598359986</v>
       </c>
+      <c r="H154" t="n">
+        <v>-0.02293950697215674</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -4017,6 +4243,9 @@
       <c r="G155" t="n">
         <v>0.005620871136309944</v>
       </c>
+      <c r="H155" t="n">
+        <v>-0.0592090956776774</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -4040,6 +4269,9 @@
       <c r="G156" t="n">
         <v>0.00889162834418002</v>
       </c>
+      <c r="H156" t="n">
+        <v>-0.06448669558237885</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -4063,6 +4295,9 @@
       <c r="G157" t="n">
         <v>0.006976980903369991</v>
       </c>
+      <c r="H157" t="n">
+        <v>0.07877662975573152</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -4086,6 +4321,9 @@
       <c r="G158" t="n">
         <v>0.005017051545829929</v>
       </c>
+      <c r="H158" t="n">
+        <v>0.00487166037504938</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -4109,6 +4347,9 @@
       <c r="G159" t="n">
         <v>0.006449718867010006</v>
       </c>
+      <c r="H159" t="n">
+        <v>-0.03904731778250259</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -4132,6 +4373,9 @@
       <c r="G160" t="n">
         <v>0.005479289422419953</v>
       </c>
+      <c r="H160" t="n">
+        <v>0.01795282190056557</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -4155,6 +4399,9 @@
       <c r="G161" t="n">
         <v>0.002805133806089941</v>
       </c>
+      <c r="H161" t="n">
+        <v>0.01332982802975735</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -4178,6 +4425,9 @@
       <c r="G162" t="n">
         <v>-0.001678942392566967</v>
       </c>
+      <c r="H162" t="n">
+        <v>-0.007612365018409228</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -4201,6 +4451,9 @@
       <c r="G163" t="n">
         <v>0.004878366669790068</v>
       </c>
+      <c r="H163" t="n">
+        <v>0.0279463048087365</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -4224,6 +4477,9 @@
       <c r="G164" t="n">
         <v>0.009602429257689948</v>
       </c>
+      <c r="H164" t="n">
+        <v>-0.02377596374770885</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -4247,6 +4503,9 @@
       <c r="G165" t="n">
         <v>0.009712688835050045</v>
       </c>
+      <c r="H165" t="n">
+        <v>0.00811231079481356</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -4270,6 +4529,9 @@
       <c r="G166" t="n">
         <v>0.009816222859540034</v>
       </c>
+      <c r="H166" t="n">
+        <v>-0.02286184072087583</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -4293,6 +4555,9 @@
       <c r="G167" t="n">
         <v>0.007935789414650002</v>
       </c>
+      <c r="H167" t="n">
+        <v>0.03957216582793954</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -4316,6 +4581,9 @@
       <c r="G168" t="n">
         <v>0.005900491052239971</v>
       </c>
+      <c r="H168" t="n">
+        <v>0.04547787216883137</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -4339,6 +4607,9 @@
       <c r="G169" t="n">
         <v>0.008080243377209939</v>
       </c>
+      <c r="H169" t="n">
+        <v>0.07927915879421299</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -4362,6 +4633,9 @@
       <c r="G170" t="n">
         <v>0.009519991715300052</v>
       </c>
+      <c r="H170" t="n">
+        <v>0.1068955826387246</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -4385,6 +4659,9 @@
       <c r="G171" t="n">
         <v>0.008949393019969989</v>
       </c>
+      <c r="H171" t="n">
+        <v>0.1545308128784022</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -4408,6 +4685,9 @@
       <c r="G172" t="n">
         <v>0.01247567712374007</v>
       </c>
+      <c r="H172" t="n">
+        <v>0.2899725958325545</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -4431,6 +4711,9 @@
       <c r="G173" t="n">
         <v>0.02323313402823999</v>
       </c>
+      <c r="H173" t="n">
+        <v>0.1149323666230981</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -4454,6 +4737,9 @@
       <c r="G174" t="n">
         <v>0.03057200228165996</v>
       </c>
+      <c r="H174" t="n">
+        <v>-0.239225221060106</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -4477,6 +4763,9 @@
       <c r="G175" t="n">
         <v>0.01984534487473994</v>
       </c>
+      <c r="H175" t="n">
+        <v>0.1428084032233237</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -4500,6 +4789,9 @@
       <c r="G176" t="n">
         <v>0.01156438282826002</v>
       </c>
+      <c r="H176" t="n">
+        <v>-0.1850511106516688</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -4523,6 +4815,9 @@
       <c r="G177" t="n">
         <v>0.005311283025649942</v>
       </c>
+      <c r="H177" t="n">
+        <v>0.01179672535759213</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -4546,6 +4841,9 @@
       <c r="G178" t="n">
         <v>0.004559130545970049</v>
       </c>
+      <c r="H178" t="n">
+        <v>0.03425551048742026</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -4569,6 +4867,9 @@
       <c r="G179" t="n">
         <v>0.003716886429260029</v>
       </c>
+      <c r="H179" t="n">
+        <v>0.1505064816581361</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -4592,6 +4893,9 @@
       <c r="G180" t="n">
         <v>0.009074358346790063</v>
       </c>
+      <c r="H180" t="n">
+        <v>0.09652619663096829</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -4615,6 +4919,9 @@
       <c r="G181" t="n">
         <v>0.009072343654979989</v>
       </c>
+      <c r="H181" t="n">
+        <v>0.02429965815209867</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -4638,6 +4945,9 @@
       <c r="G182" t="n">
         <v>0.008617337019440043</v>
       </c>
+      <c r="H182" t="n">
+        <v>-0.009963261971257076</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -4661,6 +4971,9 @@
       <c r="G183" t="n">
         <v>0.007944813311890044</v>
       </c>
+      <c r="H183" t="n">
+        <v>0.07889394246966264</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -4684,6 +4997,9 @@
       <c r="G184" t="n">
         <v>0.007024707925179996</v>
       </c>
+      <c r="H184" t="n">
+        <v>0.1984964439455705</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -4707,6 +5023,9 @@
       <c r="G185" t="n">
         <v>0.004911591572739979</v>
       </c>
+      <c r="H185" t="n">
+        <v>0.1039078991141467</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -4730,6 +5049,9 @@
       <c r="G186" t="n">
         <v>0.002859387479190048</v>
       </c>
+      <c r="H186" t="n">
+        <v>-0.06947660846966297</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -4753,6 +5075,9 @@
       <c r="G187" t="n">
         <v>0.004341847209939971</v>
       </c>
+      <c r="H187" t="n">
+        <v>-0.05831889548829139</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -4776,6 +5101,9 @@
       <c r="G188" t="n">
         <v>0.004115501953099994</v>
       </c>
+      <c r="H188" t="n">
+        <v>-0.2080905265273816</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -4799,6 +5127,9 @@
       <c r="G189" t="n">
         <v>0.004673958701840064</v>
       </c>
+      <c r="H189" t="n">
+        <v>-0.07325381533985009</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -4822,6 +5153,9 @@
       <c r="G190" t="n">
         <v>0.004926615368359961</v>
       </c>
+      <c r="H190" t="n">
+        <v>0.0181900108435844</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -4845,6 +5179,9 @@
       <c r="G191" t="n">
         <v>0.005036243309329933</v>
       </c>
+      <c r="H191" t="n">
+        <v>0.1703972042611319</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -4868,6 +5205,9 @@
       <c r="G192" t="n">
         <v>0.006443681123989933</v>
       </c>
+      <c r="H192" t="n">
+        <v>-0.114656580788099</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -4891,6 +5231,9 @@
       <c r="G193" t="n">
         <v>0.00555437953936007</v>
       </c>
+      <c r="H193" t="n">
+        <v>-0.04479513379283206</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -4914,6 +5257,9 @@
       <c r="G194" t="n">
         <v>0.004543609943639951</v>
       </c>
+      <c r="H194" t="n">
+        <v>0.03268193049942525</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -4937,6 +5283,9 @@
       <c r="G195" t="n">
         <v>0.004660023810930056</v>
       </c>
+      <c r="H195" t="n">
+        <v>-0.04362742017962606</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -4960,6 +5309,9 @@
       <c r="G196" t="n">
         <v>0.003781260083849958</v>
       </c>
+      <c r="H196" t="n">
+        <v>-0.1319827020263418</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -4983,6 +5335,9 @@
       <c r="G197" t="n">
         <v>0.001345664880160058</v>
       </c>
+      <c r="H197" t="n">
+        <v>-0.009123980993370751</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -5006,6 +5361,9 @@
       <c r="G198" t="n">
         <v>0.0004651860974900046</v>
       </c>
+      <c r="H198" t="n">
+        <v>0.03087013432162378</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -5029,6 +5387,9 @@
       <c r="G199" t="n">
         <v>0.0005734356965099608</v>
       </c>
+      <c r="H199" t="n">
+        <v>0.03323598108910009</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -5052,6 +5413,9 @@
       <c r="G200" t="n">
         <v>0.0007831763848299999</v>
       </c>
+      <c r="H200" t="n">
+        <v>0.0248111966962874</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -5075,6 +5439,9 @@
       <c r="G201" t="n">
         <v>0.003078428805279998</v>
       </c>
+      <c r="H201" t="n">
+        <v>0.02481924135299796</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -5098,6 +5465,9 @@
       <c r="G202" t="n">
         <v>0.004290788519370068</v>
       </c>
+      <c r="H202" t="n">
+        <v>0.04394212185649859</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -5121,6 +5491,9 @@
       <c r="G203" t="n">
         <v>0.007225785508520061</v>
       </c>
+      <c r="H203" t="n">
+        <v>-0.1158521603702471</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -5144,6 +5517,9 @@
       <c r="G204" t="n">
         <v>0.001883247130720065</v>
       </c>
+      <c r="H204" t="n">
+        <v>0.0009668375499352067</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -5167,6 +5543,9 @@
       <c r="G205" t="n">
         <v>3.277034958003355e-05</v>
       </c>
+      <c r="H205" t="n">
+        <v>-0.0848971942372394</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -5190,6 +5569,9 @@
       <c r="G206" t="n">
         <v>0.001351841679179984</v>
       </c>
+      <c r="H206" t="n">
+        <v>-0.08316832868799384</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -5213,6 +5595,9 @@
       <c r="G207" t="n">
         <v>0.002277228800579962</v>
       </c>
+      <c r="H207" t="n">
+        <v>-0.03502928839515818</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -5236,6 +5621,9 @@
       <c r="G208" t="n">
         <v>0.001464485576580046</v>
       </c>
+      <c r="H208" t="n">
+        <v>-0.05229547638717591</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -5259,6 +5647,9 @@
       <c r="G209" t="n">
         <v>0.001542735818059953</v>
       </c>
+      <c r="H209" t="n">
+        <v>0.0008995502855464466</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -5282,6 +5673,9 @@
       <c r="G210" t="n">
         <v>-0.001914511295135952</v>
       </c>
+      <c r="H210" t="n">
+        <v>0.04353177736200298</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -5305,6 +5699,9 @@
       <c r="G211" t="n">
         <v>0.0006182069911500321</v>
       </c>
+      <c r="H211" t="n">
+        <v>-0.05841965097616875</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -5328,6 +5725,9 @@
       <c r="G212" t="n">
         <v>0.002218252132200007</v>
       </c>
+      <c r="H212" t="n">
+        <v>-0.07814255065180387</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -5351,6 +5751,9 @@
       <c r="G213" t="n">
         <v>0.00313608456802001</v>
       </c>
+      <c r="H213" t="n">
+        <v>-0.03465294349354053</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -5374,6 +5777,9 @@
       <c r="G214" t="n">
         <v>0.004350732577500054</v>
       </c>
+      <c r="H214" t="n">
+        <v>-0.00906767498259331</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -5397,6 +5803,9 @@
       <c r="G215" t="n">
         <v>0.006096834463740066</v>
       </c>
+      <c r="H215" t="n">
+        <v>0.04933976572215037</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -5420,6 +5829,9 @@
       <c r="G216" t="n">
         <v>0.004077630025440015</v>
       </c>
+      <c r="H216" t="n">
+        <v>-0.05520947539416721</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -5443,6 +5855,9 @@
       <c r="G217" t="n">
         <v>0.005494383583619964</v>
       </c>
+      <c r="H217" t="n">
+        <v>-0.06519671259753146</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -5466,6 +5881,9 @@
       <c r="G218" t="n">
         <v>0.004446895093550012</v>
       </c>
+      <c r="H218" t="n">
+        <v>0.1131483677038618</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -5489,6 +5907,9 @@
       <c r="G219" t="n">
         <v>0.003725449969710013</v>
       </c>
+      <c r="H219" t="n">
+        <v>0.2355340927000604</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -5512,6 +5933,9 @@
       <c r="G220" t="n">
         <v>0.004123163341420053</v>
       </c>
+      <c r="H220" t="n">
+        <v>0.1345433261207205</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -5535,6 +5959,9 @@
       <c r="G221" t="n">
         <v>0.00566083817394997</v>
       </c>
+      <c r="H221" t="n">
+        <v>-0.2181528489921698</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -5558,6 +5985,9 @@
       <c r="G222" t="n">
         <v>0.005474918408699949</v>
       </c>
+      <c r="H222" t="n">
+        <v>-0.02772516844827155</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -5581,6 +6011,9 @@
       <c r="G223" t="n">
         <v>0.002871707883030013</v>
       </c>
+      <c r="H223" t="n">
+        <v>-0.05850498436312446</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -5604,6 +6037,9 @@
       <c r="G224" t="n">
         <v>0.002273742868530064</v>
       </c>
+      <c r="H224" t="n">
+        <v>-0.06296180157175701</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -5627,6 +6063,9 @@
       <c r="G225" t="n">
         <v>0.001795069579860069</v>
       </c>
+      <c r="H225" t="n">
+        <v>0.07690084319433232</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -5650,6 +6089,9 @@
       <c r="G226" t="n">
         <v>0.004037201036399977</v>
       </c>
+      <c r="H226" t="n">
+        <v>0.02105340919783316</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -5673,6 +6115,9 @@
       <c r="G227" t="n">
         <v>0.001890104850709946</v>
       </c>
+      <c r="H227" t="n">
+        <v>0.02104377746705755</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -5696,6 +6141,9 @@
       <c r="G228" t="n">
         <v>0.00362693384420993</v>
       </c>
+      <c r="H228" t="n">
+        <v>0.04410858325627576</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -5719,6 +6167,9 @@
       <c r="G229" t="n">
         <v>0.002998703250840009</v>
       </c>
+      <c r="H229" t="n">
+        <v>0.03524088348828425</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -5742,6 +6193,9 @@
       <c r="G230" t="n">
         <v>0.001239224358450031</v>
       </c>
+      <c r="H230" t="n">
+        <v>-0.003497380532170524</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -5765,6 +6219,9 @@
       <c r="G231" t="n">
         <v>0.001454780704689966</v>
       </c>
+      <c r="H231" t="n">
+        <v>-0.07985086115016582</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -5788,6 +6245,9 @@
       <c r="G232" t="n">
         <v>0.001789776428729937</v>
       </c>
+      <c r="H232" t="n">
+        <v>-0.01704500252928121</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -5811,6 +6271,9 @@
       <c r="G233" t="n">
         <v>0.0009156020393599817</v>
       </c>
+      <c r="H233" t="n">
+        <v>0.1269352468844351</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -5834,6 +6297,9 @@
       <c r="G234" t="n">
         <v>-0.0001623411223340554</v>
       </c>
+      <c r="H234" t="n">
+        <v>0.1778429933861054</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -5857,6 +6323,9 @@
       <c r="G235" t="n">
         <v>0.001658373366170025</v>
       </c>
+      <c r="H235" t="n">
+        <v>1.173602289544946</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -5880,6 +6349,9 @@
       <c r="G236" t="n">
         <v>0.004246100309880063</v>
       </c>
+      <c r="H236" t="n">
+        <v>-0.217435697495469</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -5903,6 +6375,9 @@
       <c r="G237" t="n">
         <v>0.006710288050429938</v>
       </c>
+      <c r="H237" t="n">
+        <v>-0.6356128268659447</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -5926,6 +6401,9 @@
       <c r="G238" t="n">
         <v>0.00346866915231999</v>
       </c>
+      <c r="H238" t="n">
+        <v>-0.2194141013227782</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -5949,6 +6427,9 @@
       <c r="G239" t="n">
         <v>0.00399311356506999</v>
       </c>
+      <c r="H239" t="n">
+        <v>0.01345056183948889</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -5972,6 +6453,9 @@
       <c r="G240" t="n">
         <v>0.005456672424009951</v>
       </c>
+      <c r="H240" t="n">
+        <v>-0.0345134063792818</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -5995,6 +6479,9 @@
       <c r="G241" t="n">
         <v>0.005106928943699955</v>
       </c>
+      <c r="H241" t="n">
+        <v>0.1078272164645631</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -6018,6 +6505,9 @@
       <c r="G242" t="n">
         <v>0.002035616221899943</v>
       </c>
+      <c r="H242" t="n">
+        <v>0.08689912212606998</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -6041,6 +6531,9 @@
       <c r="G243" t="n">
         <v>0.004314313517979968</v>
       </c>
+      <c r="H243" t="n">
+        <v>-0.2342881158672752</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -6064,6 +6557,9 @@
       <c r="G244" t="n">
         <v>0.005914547378680055</v>
       </c>
+      <c r="H244" t="n">
+        <v>-0.05715841383994835</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -6087,6 +6583,9 @@
       <c r="G245" t="n">
         <v>0.00556487015120993</v>
       </c>
+      <c r="H245" t="n">
+        <v>-0.02563478672672703</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -6110,6 +6609,9 @@
       <c r="G246" t="n">
         <v>0.002754788212699992</v>
       </c>
+      <c r="H246" t="n">
+        <v>-0.1021180662437211</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -6133,6 +6635,9 @@
       <c r="G247" t="n">
         <v>0.005965966158839962</v>
       </c>
+      <c r="H247" t="n">
+        <v>-0.1340848266969799</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -6156,6 +6661,9 @@
       <c r="G248" t="n">
         <v>0.005109967945259939</v>
       </c>
+      <c r="H248" t="n">
+        <v>0.06727916974911086</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -6179,6 +6687,9 @@
       <c r="G249" t="n">
         <v>0.003910996156109974</v>
       </c>
+      <c r="H249" t="n">
+        <v>-0.1257965014804521</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -6202,6 +6713,9 @@
       <c r="G250" t="n">
         <v>0.008401884090699951</v>
       </c>
+      <c r="H250" t="n">
+        <v>-0.005391634190396566</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -6225,6 +6739,9 @@
       <c r="G251" t="n">
         <v>0.009056480891139956</v>
       </c>
+      <c r="H251" t="n">
+        <v>-0.08159539027204854</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -6248,6 +6765,9 @@
       <c r="G252" t="n">
         <v>0.005481352627989935</v>
       </c>
+      <c r="H252" t="n">
+        <v>0.04422652431955587</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -6271,6 +6791,9 @@
       <c r="G253" t="n">
         <v>0.007389048936200027</v>
       </c>
+      <c r="H253" t="n">
+        <v>0.03925991313760679</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -6294,6 +6817,9 @@
       <c r="G254" t="n">
         <v>0.008492699244570048</v>
       </c>
+      <c r="H254" t="n">
+        <v>-0.1100524615415281</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -6317,6 +6843,9 @@
       <c r="G255" t="n">
         <v>0.01098332848831006</v>
       </c>
+      <c r="H255" t="n">
+        <v>-0.08053420429059965</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -6340,6 +6869,9 @@
       <c r="G256" t="n">
         <v>0.008310229019150057</v>
       </c>
+      <c r="H256" t="n">
+        <v>0.1637230235625795</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -6363,6 +6895,9 @@
       <c r="G257" t="n">
         <v>0.005389905109930026</v>
       </c>
+      <c r="H257" t="n">
+        <v>-0.08240593822990672</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -6386,6 +6921,9 @@
       <c r="G258" t="n">
         <v>0.005940716833329986</v>
       </c>
+      <c r="H258" t="n">
+        <v>-0.1662906875089201</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -6409,6 +6947,9 @@
       <c r="G259" t="n">
         <v>0.009668215106830047</v>
       </c>
+      <c r="H259" t="n">
+        <v>-0.08290398854088821</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -6432,6 +6973,9 @@
       <c r="G260" t="n">
         <v>0.07422065586035999</v>
       </c>
+      <c r="H260" t="n">
+        <v>0.1832783680392476</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -6455,6 +6999,9 @@
       <c r="G261" t="n">
         <v>0.01338921070059996</v>
       </c>
+      <c r="H261" t="n">
+        <v>0.04690998243445321</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -6478,6 +7025,9 @@
       <c r="G262" t="n">
         <v>0.002442988491170013</v>
       </c>
+      <c r="H262" t="n">
+        <v>-0.1911833023324556</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -6501,6 +7051,9 @@
       <c r="G263" t="n">
         <v>-0.0009676116325489658</v>
       </c>
+      <c r="H263" t="n">
+        <v>0.05434347979122833</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -6524,6 +7077,9 @@
       <c r="G264" t="n">
         <v>-0.001263034468446023</v>
       </c>
+      <c r="H264" t="n">
+        <v>0.1455869840503832</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -6547,6 +7103,9 @@
       <c r="G265" t="n">
         <v>0.0005803726451600256</v>
       </c>
+      <c r="H265" t="n">
+        <v>0.04465145363767142</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -6570,6 +7129,9 @@
       <c r="G266" t="n">
         <v>0.002755552356779987</v>
       </c>
+      <c r="H266" t="n">
+        <v>0.03310059793916142</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -6593,6 +7155,9 @@
       <c r="G267" t="n">
         <v>0.001752962138429979</v>
       </c>
+      <c r="H267" t="n">
+        <v>-0.06905803717072523</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -6616,6 +7181,9 @@
       <c r="G268" t="n">
         <v>0.002377640868620006</v>
       </c>
+      <c r="H268" t="n">
+        <v>0.09968569698922103</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -6639,6 +7207,9 @@
       <c r="G269" t="n">
         <v>0.004829570429619992</v>
       </c>
+      <c r="H269" t="n">
+        <v>0.1634086658132228</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -6662,6 +7233,9 @@
       <c r="G270" t="n">
         <v>0.004352907952259955</v>
       </c>
+      <c r="H270" t="n">
+        <v>0.0486375817110325</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -6685,6 +7259,9 @@
       <c r="G271" t="n">
         <v>0.002621897405140032</v>
       </c>
+      <c r="H271" t="n">
+        <v>-0.0639487246002739</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -6708,6 +7285,9 @@
       <c r="G272" t="n">
         <v>0.002077754254899986</v>
       </c>
+      <c r="H272" t="n">
+        <v>-0.07647855894149558</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -6731,6 +7311,9 @@
       <c r="G273" t="n">
         <v>0.001749579722779941</v>
       </c>
+      <c r="H273" t="n">
+        <v>0.03863310547273358</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -6754,6 +7337,9 @@
       <c r="G274" t="n">
         <v>0.004485309989610045</v>
       </c>
+      <c r="H274" t="n">
+        <v>0.0920518284066576</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -6777,6 +7363,9 @@
       <c r="G275" t="n">
         <v>0.006295380904410024</v>
       </c>
+      <c r="H275" t="n">
+        <v>-0.03260215914986198</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -6800,6 +7389,9 @@
       <c r="G276" t="n">
         <v>0.008854078956020004</v>
       </c>
+      <c r="H276" t="n">
+        <v>-0.1808702396825916</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -6823,6 +7415,9 @@
       <c r="G277" t="n">
         <v>0.008550520996100062</v>
       </c>
+      <c r="H277" t="n">
+        <v>-0.04223918717973874</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -6845,6 +7440,9 @@
       </c>
       <c r="G278" t="n">
         <v>0.01074994619527999</v>
+      </c>
+      <c r="H278" t="n">
+        <v>-0.05212559875880451</v>
       </c>
     </row>
   </sheetData>
